--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243214.106296381</v>
+        <v>1183758.219331447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183237</v>
+        <v>4065790.381183236</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.06259291064552</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>34.06259291064544</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>46.21578045632711</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,76 +1527,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="T13" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.06259291064555</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>131.2015301826823</v>
+        <v>34.06259291064546</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.2157804563271</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.84201380359813</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T16" t="n">
-        <v>56.72029398130843</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>131.2015301826823</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>34.06259291064544</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,73 +1925,73 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.951109709083267</v>
+      </c>
+      <c r="H18" t="n">
+        <v>106.6111980758233</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>64.00123621872456</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Y18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="V18" t="n">
-        <v>51.56107156618204</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>70.28204657123847</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C20" t="n">
-        <v>34.06259291064552</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="X20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>81.49971487426106</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="Y20" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="U20" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>51.56107156618207</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>115.5623077849067</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5623077849066</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>131.2015301826823</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.5936192535807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>141.768304937892</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2399,10 +2399,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>141.4769977499076</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>160.8663307357858</v>
+        <v>113.6056429721828</v>
       </c>
       <c r="T24" t="n">
         <v>197.8174615641865</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>47.88355619318219</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>238.0270793442308</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>306.8305047630002</v>
+        <v>168.7979436778024</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S26" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.69048433563586</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>29.3053438025092</v>
       </c>
       <c r="G27" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>160.8663307357858</v>
@@ -2690,7 +2690,7 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R28" t="n">
-        <v>155.3412370008718</v>
+        <v>116.8078358387204</v>
       </c>
       <c r="S28" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.3174094211432</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>19.70067073793367</v>
       </c>
       <c r="H29" t="n">
-        <v>284.837921694777</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>144.9246966358096</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>44.49118382639616</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
         <v>69.34652732857948</v>
@@ -2930,10 +2930,10 @@
         <v>225.903069777428</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>138.3174094211432</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S31" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>22.51882743329233</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>92.832337631569</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>150.3279866099806</v>
       </c>
       <c r="I32" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S32" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3164,7 +3164,7 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U33" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>103.3991644156165</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>162.6787611170039</v>
       </c>
     </row>
     <row r="34">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.81191981442532</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.68584234335904</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3313648658995</v>
+        <v>191.6748135763442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>287.3711133457221</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>2.19337197137698</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H36" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>69.34652732857948</v>
@@ -3395,25 +3395,25 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
-        <v>160.8663307357858</v>
+        <v>49.9974418714836</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>257.0292550091257</v>
+        <v>138.3174094211433</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>116.4506659910921</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>48.70583002617008</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>61.578677528002</v>
+        <v>79.43757071657895</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
-        <v>82.68584234335904</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.0572985513648</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3088345861860876</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>67.50874116125665</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.30186275682195</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U42" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>114.2938393313843</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.37173998348126</v>
+        <v>67.79908864696046</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.6772600548332</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>268.0307942082512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>68.8918378829777</v>
+        <v>160.3964596426151</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>59.42543634081373</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H46" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.41111094378581</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>309.9563782489682</v>
+      </c>
+      <c r="C11" t="n">
+        <v>309.9563782489682</v>
+      </c>
+      <c r="D11" t="n">
+        <v>309.9563782489682</v>
+      </c>
+      <c r="E11" t="n">
+        <v>309.9563782489682</v>
+      </c>
+      <c r="F11" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="G11" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="H11" t="n">
         <v>143.0229205789402</v>
-      </c>
-      <c r="C11" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="D11" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="E11" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="F11" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.49612241461459</v>
       </c>
       <c r="I11" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J11" t="n">
-        <v>28.66842782247073</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K11" t="n">
-        <v>28.66842782247073</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L11" t="n">
-        <v>28.66842782247073</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="M11" t="n">
-        <v>158.5579427033263</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="N11" t="n">
-        <v>288.4474575841818</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O11" t="n">
-        <v>288.4474575841818</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3369724650373</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q11" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R11" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S11" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="T11" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="U11" t="n">
-        <v>309.9563782489683</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="V11" t="n">
-        <v>309.9563782489683</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="W11" t="n">
-        <v>309.9563782489683</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="X11" t="n">
-        <v>177.4295800846427</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.4295800846427</v>
+        <v>309.9563782489682</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.54311971621003</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C12" t="n">
-        <v>80.54311971621003</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I12" t="n">
         <v>10.49612241461459</v>
@@ -5123,49 +5123,49 @@
         <v>64.22582882795403</v>
       </c>
       <c r="K12" t="n">
-        <v>194.1153437088096</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="L12" t="n">
-        <v>324.0048585896651</v>
+        <v>324.004858589665</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0007358028653</v>
+        <v>329.3700822162515</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9166058498739</v>
+        <v>349.28595226326</v>
       </c>
       <c r="O12" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P12" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S12" t="n">
-        <v>478.1235142091869</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T12" t="n">
-        <v>345.5967160448612</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U12" t="n">
-        <v>345.5967160448612</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V12" t="n">
-        <v>213.0699178805356</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W12" t="n">
-        <v>213.0699178805356</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X12" t="n">
-        <v>213.0699178805356</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y12" t="n">
-        <v>80.54311971621003</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C13" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D13" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E13" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F13" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G13" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H13" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I13" t="n">
         <v>10.49612241461459</v>
@@ -5202,49 +5202,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881299</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L13" t="n">
-        <v>143.777709500362</v>
+        <v>143.7777095003619</v>
       </c>
       <c r="M13" t="n">
-        <v>258.7311718598701</v>
+        <v>258.73117185987</v>
       </c>
       <c r="N13" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O13" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P13" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q13" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R13" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S13" t="n">
-        <v>524.8061207307294</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T13" t="n">
-        <v>524.8061207307294</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="U13" t="n">
-        <v>392.2793225664038</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V13" t="n">
-        <v>392.2793225664038</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="W13" t="n">
-        <v>392.2793225664038</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="X13" t="n">
-        <v>392.2793225664038</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y13" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="C14" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="D14" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="E14" t="n">
         <v>143.0229205789402</v>
@@ -5278,52 +5278,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J14" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K14" t="n">
-        <v>140.3856372954701</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="L14" t="n">
-        <v>270.2751521763256</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="M14" t="n">
-        <v>400.1646670571811</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="N14" t="n">
-        <v>400.1646670571811</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="O14" t="n">
-        <v>524.8061207307294</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="P14" t="n">
-        <v>524.8061207307294</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q14" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R14" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S14" t="n">
-        <v>442.483176413294</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T14" t="n">
-        <v>442.483176413294</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="U14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="V14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="W14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="X14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.9563782489683</v>
+        <v>177.4295800846427</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.54311971621003</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C15" t="n">
-        <v>80.54311971621003</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D15" t="n">
-        <v>80.54311971621003</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E15" t="n">
-        <v>80.54311971621003</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="F15" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G15" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H15" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I15" t="n">
         <v>10.49612241461459</v>
@@ -5360,40 +5360,40 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K15" t="n">
-        <v>10.49612241461459</v>
+        <v>109.8564824145678</v>
       </c>
       <c r="L15" t="n">
-        <v>129.7723524615762</v>
+        <v>239.7459972954233</v>
       </c>
       <c r="M15" t="n">
-        <v>135.1375760881628</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N15" t="n">
         <v>265.0270909690183</v>
       </c>
       <c r="O15" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9166058498739</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q15" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R15" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S15" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T15" t="n">
-        <v>392.2793225664038</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U15" t="n">
         <v>259.7525244020782</v>
       </c>
       <c r="V15" t="n">
-        <v>127.2257262377526</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W15" t="n">
         <v>127.2257262377526</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="J16" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881299</v>
+        <v>44.60440993881286</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5448,40 +5448,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N16" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O16" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R16" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S16" t="n">
-        <v>524.8061207307294</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="T16" t="n">
-        <v>467.5128944869835</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="U16" t="n">
-        <v>467.5128944869835</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="V16" t="n">
-        <v>334.9860963226579</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="W16" t="n">
-        <v>334.9860963226579</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="X16" t="n">
-        <v>202.4592981583322</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.93249999400663</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>442.4831764132938</v>
+      </c>
+      <c r="C17" t="n">
+        <v>442.4831764132938</v>
+      </c>
+      <c r="D17" t="n">
+        <v>309.9563782489682</v>
+      </c>
+      <c r="E17" t="n">
         <v>275.5497187432658</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="G17" t="n">
         <v>143.0229205789402</v>
       </c>
-      <c r="D17" t="n">
+      <c r="H17" t="n">
         <v>143.0229205789402</v>
-      </c>
-      <c r="E17" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10.49612241461459</v>
       </c>
       <c r="I17" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11941249266594</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K17" t="n">
-        <v>90.11941249266594</v>
+        <v>135.1375760881628</v>
       </c>
       <c r="L17" t="n">
-        <v>220.0089273735215</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="M17" t="n">
-        <v>288.4474575841818</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="N17" t="n">
-        <v>288.4474575841818</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O17" t="n">
-        <v>288.4474575841818</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3369724650373</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R17" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S17" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="T17" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="U17" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="V17" t="n">
-        <v>524.8061207307294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="W17" t="n">
-        <v>408.0765169075914</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="X17" t="n">
-        <v>275.5497187432658</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="Y17" t="n">
-        <v>275.5497187432658</v>
+        <v>442.4831764132938</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C18" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D18" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E18" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="F18" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="G18" t="n">
-        <v>10.49612241461459</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="H18" t="n">
         <v>10.49612241461459</v>
@@ -5594,52 +5594,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J18" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K18" t="n">
-        <v>194.1153437088096</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L18" t="n">
-        <v>324.0048585896651</v>
+        <v>259.6618673424318</v>
       </c>
       <c r="M18" t="n">
-        <v>453.8943734705206</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8102435175292</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O18" t="n">
-        <v>473.8102435175292</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P18" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q18" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R18" t="n">
-        <v>460.1584073784824</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S18" t="n">
-        <v>460.1584073784824</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T18" t="n">
-        <v>327.6316092141568</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U18" t="n">
-        <v>195.1048110498311</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V18" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W18" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="X18" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C19" t="n">
         <v>10.49612241461459</v>
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5685,40 +5685,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N19" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q19" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R19" t="n">
-        <v>346.54168497684</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S19" t="n">
-        <v>346.54168497684</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="T19" t="n">
-        <v>214.0148868125144</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="U19" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V19" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W19" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X19" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>177.4295800846427</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E20" t="n">
         <v>10.49612241461459</v>
@@ -5755,49 +5755,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K20" t="n">
-        <v>10.49612241461459</v>
+        <v>135.1375760881628</v>
       </c>
       <c r="L20" t="n">
-        <v>140.3856372954701</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="M20" t="n">
-        <v>158.5579427033263</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="N20" t="n">
-        <v>288.4474575841818</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="O20" t="n">
-        <v>288.4474575841818</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3369724650373</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R20" t="n">
-        <v>442.483176413294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S20" t="n">
-        <v>442.483176413294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T20" t="n">
-        <v>309.9563782489683</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U20" t="n">
-        <v>177.4295800846427</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V20" t="n">
-        <v>177.4295800846427</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W20" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X20" t="n">
-        <v>177.4295800846427</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>408.0765169075913</v>
+      </c>
+      <c r="C21" t="n">
+        <v>275.5497187432658</v>
+      </c>
+      <c r="D21" t="n">
         <v>143.0229205789402</v>
       </c>
-      <c r="C21" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10.49612241461459</v>
-      </c>
       <c r="E21" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F21" t="n">
         <v>10.49612241461459</v>
@@ -5831,52 +5831,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K21" t="n">
-        <v>10.49612241461459</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="L21" t="n">
-        <v>10.49612241461459</v>
+        <v>239.7459972954233</v>
       </c>
       <c r="M21" t="n">
-        <v>115.2217060411543</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N21" t="n">
-        <v>135.1375760881628</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O21" t="n">
         <v>265.0270909690183</v>
       </c>
       <c r="P21" t="n">
-        <v>394.9166058498739</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R21" t="n">
-        <v>460.1584073784824</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S21" t="n">
-        <v>408.0765169075914</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T21" t="n">
-        <v>408.0765169075914</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="U21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="V21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="W21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X21" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="Y21" t="n">
-        <v>143.0229205789402</v>
+        <v>408.0765169075913</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377527</v>
       </c>
       <c r="C22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377527</v>
       </c>
       <c r="D22" t="n">
         <v>10.49612241461459</v>
@@ -5913,7 +5913,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881292</v>
+        <v>44.60440993881296</v>
       </c>
       <c r="L22" t="n">
         <v>143.7777095003619</v>
@@ -5937,25 +5937,25 @@
         <v>392.2793225664038</v>
       </c>
       <c r="S22" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020783</v>
       </c>
       <c r="T22" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020783</v>
       </c>
       <c r="U22" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020783</v>
       </c>
       <c r="V22" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020783</v>
       </c>
       <c r="W22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377527</v>
       </c>
       <c r="X22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377527</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377527</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.772918746947</v>
+        <v>1016.583291728289</v>
       </c>
       <c r="C23" t="n">
-        <v>840.772918746947</v>
+        <v>1016.583291728289</v>
       </c>
       <c r="D23" t="n">
-        <v>840.772918746947</v>
+        <v>1016.583291728289</v>
       </c>
       <c r="E23" t="n">
-        <v>454.9846661487028</v>
+        <v>1016.583291728289</v>
       </c>
       <c r="F23" t="n">
-        <v>43.99876135909523</v>
+        <v>605.5973869386819</v>
       </c>
       <c r="G23" t="n">
-        <v>43.99876135909523</v>
+        <v>187.199069377168</v>
       </c>
       <c r="H23" t="n">
         <v>43.99876135909523</v>
@@ -5989,19 +5989,19 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J23" t="n">
-        <v>123.6220514371465</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K23" t="n">
         <v>363.7015273031528</v>
       </c>
       <c r="L23" t="n">
-        <v>713.8179739365964</v>
+        <v>713.8179739365967</v>
       </c>
       <c r="M23" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O23" t="n">
         <v>1848.86027121381</v>
@@ -6016,25 +6016,25 @@
         <v>2199.938067954761</v>
       </c>
       <c r="S23" t="n">
-        <v>2199.938067954761</v>
+        <v>2013.859195956</v>
       </c>
       <c r="T23" t="n">
-        <v>2199.938067954761</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="U23" t="n">
-        <v>1946.141521836077</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="V23" t="n">
-        <v>1615.078634492506</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="W23" t="n">
-        <v>1615.078634492506</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="X23" t="n">
-        <v>1241.612876231426</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="Y23" t="n">
-        <v>851.4735442556143</v>
+        <v>1403.183131792411</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>471.5819737758532</v>
+        <v>583.967755576184</v>
       </c>
       <c r="C24" t="n">
-        <v>471.5819737758532</v>
+        <v>409.514726295057</v>
       </c>
       <c r="D24" t="n">
-        <v>328.6759154426132</v>
+        <v>260.5803166338057</v>
       </c>
       <c r="E24" t="n">
-        <v>328.6759154426132</v>
+        <v>260.5803166338057</v>
       </c>
       <c r="F24" t="n">
-        <v>182.1413574694982</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="G24" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="H24" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="I24" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J24" t="n">
-        <v>97.72846777243467</v>
+        <v>62.27346334826848</v>
       </c>
       <c r="K24" t="n">
-        <v>205.2607465017562</v>
+        <v>62.27346334826848</v>
       </c>
       <c r="L24" t="n">
-        <v>560.4027911177354</v>
+        <v>417.4155079642478</v>
       </c>
       <c r="M24" t="n">
-        <v>1026.816027856822</v>
+        <v>883.8287447033342</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.280848503948</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O24" t="n">
-        <v>1907.203879601196</v>
+        <v>1764.216596447708</v>
       </c>
       <c r="P24" t="n">
-        <v>2199.938067954761</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q24" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R24" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S24" t="n">
-        <v>1972.799111435054</v>
+        <v>2085.184893235385</v>
       </c>
       <c r="T24" t="n">
-        <v>1772.983493693451</v>
+        <v>1885.369275493782</v>
       </c>
       <c r="U24" t="n">
-        <v>1544.798574726352</v>
+        <v>1657.184356526683</v>
       </c>
       <c r="V24" t="n">
-        <v>1309.64646649461</v>
+        <v>1422.03224829494</v>
       </c>
       <c r="W24" t="n">
-        <v>1055.409109766408</v>
+        <v>1167.794891566739</v>
       </c>
       <c r="X24" t="n">
-        <v>847.5576095608751</v>
+        <v>959.9433913612058</v>
       </c>
       <c r="Y24" t="n">
-        <v>639.7973107959212</v>
+        <v>752.183092596252</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.99876135909523</v>
+        <v>509.9415311972482</v>
       </c>
       <c r="C25" t="n">
-        <v>43.99876135909523</v>
+        <v>341.0053482693413</v>
       </c>
       <c r="D25" t="n">
-        <v>43.99876135909523</v>
+        <v>190.8887088570056</v>
       </c>
       <c r="E25" t="n">
-        <v>43.99876135909523</v>
+        <v>190.8887088570056</v>
       </c>
       <c r="F25" t="n">
         <v>43.99876135909523</v>
@@ -6150,16 +6150,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K25" t="n">
-        <v>78.10704888329363</v>
+        <v>78.1070488832936</v>
       </c>
       <c r="L25" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M25" t="n">
-        <v>292.2338108043507</v>
+        <v>292.2338108043506</v>
       </c>
       <c r="N25" t="n">
-        <v>409.8885531844246</v>
+        <v>409.8885531844245</v>
       </c>
       <c r="O25" t="n">
         <v>502.545455229807</v>
@@ -6168,31 +6168,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T25" t="n">
-        <v>284.4301546360961</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U25" t="n">
-        <v>284.4301546360961</v>
+        <v>509.9415311972482</v>
       </c>
       <c r="V25" t="n">
-        <v>284.4301546360961</v>
+        <v>509.9415311972482</v>
       </c>
       <c r="W25" t="n">
-        <v>43.99876135909523</v>
+        <v>509.9415311972482</v>
       </c>
       <c r="X25" t="n">
-        <v>43.99876135909523</v>
+        <v>509.9415311972482</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.99876135909523</v>
+        <v>509.9415311972482</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>722.8910810904163</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="C26" t="n">
-        <v>353.9285641500045</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="D26" t="n">
-        <v>43.99876135909523</v>
+        <v>1761.033278226643</v>
       </c>
       <c r="E26" t="n">
-        <v>43.99876135909523</v>
+        <v>1375.245025628399</v>
       </c>
       <c r="F26" t="n">
-        <v>43.99876135909523</v>
+        <v>964.2591208387912</v>
       </c>
       <c r="G26" t="n">
-        <v>43.99876135909523</v>
+        <v>545.8608032772772</v>
       </c>
       <c r="H26" t="n">
-        <v>43.99876135909523</v>
+        <v>214.2161633091196</v>
       </c>
       <c r="I26" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J26" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371461</v>
       </c>
       <c r="K26" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031523</v>
       </c>
       <c r="L26" t="n">
-        <v>713.8179739365964</v>
+        <v>713.817973936596</v>
       </c>
       <c r="M26" t="n">
         <v>1119.996526506345</v>
@@ -6250,28 +6250,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R26" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S26" t="n">
-        <v>2013.859195956</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="T26" t="n">
-        <v>1793.322463768223</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="U26" t="n">
-        <v>1793.322463768223</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="V26" t="n">
-        <v>1462.259576424652</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="W26" t="n">
-        <v>1109.490921154538</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="X26" t="n">
-        <v>1109.490921154538</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="Y26" t="n">
-        <v>1109.490921154538</v>
+        <v>1931.536251638565</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>610.8170235882083</v>
+        <v>764.4146060951994</v>
       </c>
       <c r="C27" t="n">
-        <v>436.3639943070813</v>
+        <v>589.9615768140724</v>
       </c>
       <c r="D27" t="n">
-        <v>436.3639943070813</v>
+        <v>441.0271671528211</v>
       </c>
       <c r="E27" t="n">
-        <v>436.3639943070813</v>
+        <v>281.7897121473656</v>
       </c>
       <c r="F27" t="n">
-        <v>289.8294363339663</v>
+        <v>252.1883547710937</v>
       </c>
       <c r="G27" t="n">
-        <v>151.6868402235633</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="H27" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="I27" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J27" t="n">
-        <v>97.72846777243467</v>
+        <v>62.27346334826848</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1819370893671</v>
+        <v>62.27346334826848</v>
       </c>
       <c r="L27" t="n">
-        <v>671.3239817053463</v>
+        <v>417.4155079642478</v>
       </c>
       <c r="M27" t="n">
         <v>883.8287447033342</v>
@@ -6329,28 +6329,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S27" t="n">
-        <v>1972.799111435054</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T27" t="n">
-        <v>1772.983493693451</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="U27" t="n">
-        <v>1544.798574726352</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="V27" t="n">
-        <v>1309.64646649461</v>
+        <v>1602.479098813956</v>
       </c>
       <c r="W27" t="n">
-        <v>1055.409109766408</v>
+        <v>1348.241742085754</v>
       </c>
       <c r="X27" t="n">
-        <v>847.5576095608751</v>
+        <v>1140.390241880221</v>
       </c>
       <c r="Y27" t="n">
-        <v>639.7973107959212</v>
+        <v>932.6299431152675</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.99876135909523</v>
+        <v>212.9349442870021</v>
       </c>
       <c r="C28" t="n">
         <v>43.99876135909523</v>
@@ -6405,31 +6405,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q28" t="n">
-        <v>558.30875967521</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="R28" t="n">
-        <v>401.398419270289</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="S28" t="n">
-        <v>183.713316329947</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="T28" t="n">
-        <v>183.713316329947</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="U28" t="n">
-        <v>183.713316329947</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="V28" t="n">
-        <v>43.99876135909523</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="W28" t="n">
-        <v>43.99876135909523</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="X28" t="n">
-        <v>43.99876135909523</v>
+        <v>394.5834091172418</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.99876135909523</v>
+        <v>394.5834091172418</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1256.682005266742</v>
+        <v>781.3313213375513</v>
       </c>
       <c r="C29" t="n">
-        <v>887.7194883263305</v>
+        <v>781.3313213375513</v>
       </c>
       <c r="D29" t="n">
-        <v>887.7194883263305</v>
+        <v>781.3313213375513</v>
       </c>
       <c r="E29" t="n">
-        <v>501.9312357280863</v>
+        <v>395.5430687393071</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9312357280863</v>
+        <v>395.5430687393071</v>
       </c>
       <c r="G29" t="n">
-        <v>501.9312357280863</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H29" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I29" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371465</v>
       </c>
       <c r="K29" t="n">
         <v>363.7015273031528</v>
@@ -6472,7 +6472,7 @@
         <v>713.8179739365964</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.996526506345</v>
+        <v>1119.996526506346</v>
       </c>
       <c r="N29" t="n">
         <v>1518.115475157463</v>
@@ -6490,25 +6490,25 @@
         <v>2117.615123637326</v>
       </c>
       <c r="S29" t="n">
-        <v>2117.615123637326</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="T29" t="n">
-        <v>1897.078391449548</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="U29" t="n">
-        <v>1643.281845330864</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="V29" t="n">
-        <v>1643.281845330864</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="W29" t="n">
-        <v>1643.281845330864</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="X29" t="n">
-        <v>1643.281845330864</v>
+        <v>1558.070493377485</v>
       </c>
       <c r="Y29" t="n">
-        <v>1643.281845330864</v>
+        <v>1167.931161401673</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>471.5819737758532</v>
+        <v>960.9714387357974</v>
       </c>
       <c r="C30" t="n">
-        <v>297.1289444947262</v>
+        <v>814.5828562753836</v>
       </c>
       <c r="D30" t="n">
-        <v>297.1289444947262</v>
+        <v>665.6484466141324</v>
       </c>
       <c r="E30" t="n">
-        <v>297.1289444947262</v>
+        <v>506.4109916086768</v>
       </c>
       <c r="F30" t="n">
-        <v>252.1883547710937</v>
+        <v>359.8764336355617</v>
       </c>
       <c r="G30" t="n">
-        <v>114.0457586606907</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="H30" t="n">
         <v>114.0457586606907</v>
@@ -6545,22 +6545,22 @@
         <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1819370893671</v>
+        <v>205.2607465017562</v>
       </c>
       <c r="L30" t="n">
-        <v>671.3239817053463</v>
+        <v>560.4027911177354</v>
       </c>
       <c r="M30" t="n">
-        <v>1137.737218444433</v>
+        <v>1026.816027856822</v>
       </c>
       <c r="N30" t="n">
-        <v>1378.293565350461</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O30" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P30" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q30" t="n">
         <v>2199.938067954761</v>
@@ -6578,16 +6578,16 @@
         <v>1544.798574726352</v>
       </c>
       <c r="V30" t="n">
-        <v>1309.64646649461</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="W30" t="n">
-        <v>1055.409109766408</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="X30" t="n">
-        <v>847.5576095608751</v>
+        <v>1336.947074520819</v>
       </c>
       <c r="Y30" t="n">
-        <v>639.7973107959212</v>
+        <v>1129.186775755865</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="C31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="D31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="E31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="F31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="G31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="H31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="I31" t="n">
         <v>43.99876135909523</v>
@@ -6642,31 +6642,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q31" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R31" t="n">
-        <v>512.5711220856463</v>
+        <v>401.398419270289</v>
       </c>
       <c r="S31" t="n">
-        <v>294.8860191453043</v>
+        <v>183.713316329947</v>
       </c>
       <c r="T31" t="n">
-        <v>66.74505169575414</v>
+        <v>183.713316329947</v>
       </c>
       <c r="U31" t="n">
-        <v>66.74505169575414</v>
+        <v>183.713316329947</v>
       </c>
       <c r="V31" t="n">
-        <v>66.74505169575414</v>
+        <v>183.713316329947</v>
       </c>
       <c r="W31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="X31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.99876135909523</v>
+        <v>183.713316329947</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>676.9487182612172</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="C32" t="n">
-        <v>307.9862013208055</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="D32" t="n">
-        <v>214.2161633091196</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="E32" t="n">
-        <v>214.2161633091196</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="F32" t="n">
-        <v>214.2161633091196</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="G32" t="n">
-        <v>214.2161633091196</v>
+        <v>195.8452124802877</v>
       </c>
       <c r="H32" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I32" t="n">
         <v>43.99876135909523</v>
@@ -6703,16 +6703,16 @@
         <v>123.6220514371466</v>
       </c>
       <c r="K32" t="n">
-        <v>363.7015273031523</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L32" t="n">
-        <v>713.817973936596</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M32" t="n">
-        <v>1119.996526506345</v>
+        <v>1119.996526506346</v>
       </c>
       <c r="N32" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O32" t="n">
         <v>1848.86027121381</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S32" t="n">
-        <v>2013.859195956</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T32" t="n">
-        <v>1793.322463768223</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="U32" t="n">
-        <v>1793.322463768223</v>
+        <v>1643.281845330864</v>
       </c>
       <c r="V32" t="n">
-        <v>1793.322463768223</v>
+        <v>1312.218957987293</v>
       </c>
       <c r="W32" t="n">
-        <v>1440.553808498109</v>
+        <v>959.4503027171793</v>
       </c>
       <c r="X32" t="n">
-        <v>1067.088050237029</v>
+        <v>585.9845444560995</v>
       </c>
       <c r="Y32" t="n">
-        <v>676.9487182612172</v>
+        <v>195.8452124802877</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J33" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1819370893671</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L33" t="n">
-        <v>671.3239817053463</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M33" t="n">
-        <v>1137.737218444433</v>
+        <v>1084.007512031093</v>
       </c>
       <c r="N33" t="n">
         <v>1378.293565350461</v>
@@ -6812,19 +6812,19 @@
         <v>1772.983493693451</v>
       </c>
       <c r="U33" t="n">
-        <v>1544.798574726352</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="V33" t="n">
-        <v>1309.64646649461</v>
+        <v>1537.831385461709</v>
       </c>
       <c r="W33" t="n">
-        <v>1055.409109766408</v>
+        <v>1283.594028733507</v>
       </c>
       <c r="X33" t="n">
-        <v>950.9655093465933</v>
+        <v>1075.742528527974</v>
       </c>
       <c r="Y33" t="n">
-        <v>743.2052105816394</v>
+        <v>911.4205476017075</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.99876135909523</v>
+        <v>87.2431248080097</v>
       </c>
       <c r="C34" t="n">
-        <v>43.99876135909523</v>
+        <v>87.2431248080097</v>
       </c>
       <c r="D34" t="n">
         <v>43.99876135909523</v>
@@ -6879,31 +6879,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q34" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R34" t="n">
-        <v>355.6607816807252</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>272.1397288086454</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T34" t="n">
-        <v>43.99876135909523</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U34" t="n">
-        <v>43.99876135909523</v>
+        <v>558.30875967521</v>
       </c>
       <c r="V34" t="n">
-        <v>43.99876135909523</v>
+        <v>558.30875967521</v>
       </c>
       <c r="W34" t="n">
-        <v>43.99876135909523</v>
+        <v>268.8915896382494</v>
       </c>
       <c r="X34" t="n">
-        <v>43.99876135909523</v>
+        <v>268.8915896382494</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.99876135909523</v>
+        <v>268.8915896382494</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>750.9355315108826</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="C35" t="n">
-        <v>750.9355315108826</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="D35" t="n">
-        <v>750.9355315108826</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="E35" t="n">
         <v>365.1472789126383</v>
@@ -6937,19 +6937,19 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J35" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K35" t="n">
-        <v>273.5821148104869</v>
+        <v>113.125929022532</v>
       </c>
       <c r="L35" t="n">
-        <v>623.6985614439305</v>
+        <v>189.0118532058671</v>
       </c>
       <c r="M35" t="n">
-        <v>925.9352018319628</v>
+        <v>595.1904057756165</v>
       </c>
       <c r="N35" t="n">
-        <v>1324.054150483081</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O35" t="n">
         <v>1324.054150483081</v>
@@ -6961,28 +6961,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R35" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S35" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T35" t="n">
-        <v>1372.272270718819</v>
+        <v>1481.521024419644</v>
       </c>
       <c r="U35" t="n">
-        <v>1372.272270718819</v>
+        <v>1481.521024419644</v>
       </c>
       <c r="V35" t="n">
-        <v>1041.209383375248</v>
+        <v>1481.521024419644</v>
       </c>
       <c r="W35" t="n">
-        <v>1041.209383375248</v>
+        <v>1128.75236914953</v>
       </c>
       <c r="X35" t="n">
-        <v>750.9355315108826</v>
+        <v>755.28661088845</v>
       </c>
       <c r="Y35" t="n">
-        <v>750.9355315108826</v>
+        <v>365.1472789126383</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362.3876520156105</v>
+        <v>721.9172746161765</v>
       </c>
       <c r="C36" t="n">
-        <v>360.1721247717954</v>
+        <v>547.4642453350496</v>
       </c>
       <c r="D36" t="n">
-        <v>211.2377151105441</v>
+        <v>547.4642453350496</v>
       </c>
       <c r="E36" t="n">
-        <v>211.2377151105441</v>
+        <v>388.2267903295941</v>
       </c>
       <c r="F36" t="n">
-        <v>211.2377151105441</v>
+        <v>241.6922323564791</v>
       </c>
       <c r="G36" t="n">
-        <v>211.2377151105441</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="H36" t="n">
         <v>103.5496362460761</v>
@@ -7025,16 +7025,16 @@
         <v>660.8278592907318</v>
       </c>
       <c r="M36" t="n">
-        <v>731.626476035349</v>
+        <v>833.5715745727233</v>
       </c>
       <c r="N36" t="n">
-        <v>1146.221632973297</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O36" t="n">
-        <v>1532.144664070544</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q36" t="n">
         <v>1675.131947224032</v>
@@ -7043,25 +7043,25 @@
         <v>1610.484233871785</v>
       </c>
       <c r="S36" t="n">
-        <v>1447.992990704324</v>
+        <v>1559.981767334933</v>
       </c>
       <c r="T36" t="n">
-        <v>1248.177372962722</v>
+        <v>1559.981767334933</v>
       </c>
       <c r="U36" t="n">
-        <v>1019.992453995623</v>
+        <v>1559.981767334933</v>
       </c>
       <c r="V36" t="n">
-        <v>784.8403457638801</v>
+        <v>1559.981767334933</v>
       </c>
       <c r="W36" t="n">
-        <v>530.6029890356785</v>
+        <v>1305.744410606731</v>
       </c>
       <c r="X36" t="n">
-        <v>530.6029890356785</v>
+        <v>1097.892910401198</v>
       </c>
       <c r="Y36" t="n">
-        <v>530.6029890356785</v>
+        <v>890.1326116362445</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
@@ -7119,19 +7119,19 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R37" t="n">
-        <v>547.8126372605955</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="S37" t="n">
-        <v>547.8126372605955</v>
+        <v>173.2171939153324</v>
       </c>
       <c r="T37" t="n">
-        <v>547.8126372605955</v>
+        <v>173.2171939153324</v>
       </c>
       <c r="U37" t="n">
-        <v>547.8126372605955</v>
+        <v>173.2171939153324</v>
       </c>
       <c r="V37" t="n">
-        <v>293.1281490547086</v>
+        <v>173.2171939153324</v>
       </c>
       <c r="W37" t="n">
         <v>33.50263894448064</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>832.7434045813948</v>
+        <v>1557.505011879495</v>
       </c>
       <c r="C38" t="n">
-        <v>832.7434045813948</v>
+        <v>1188.542494939083</v>
       </c>
       <c r="D38" t="n">
-        <v>832.7434045813948</v>
+        <v>830.2767963323324</v>
       </c>
       <c r="E38" t="n">
-        <v>783.5455964741523</v>
+        <v>444.4885437340882</v>
       </c>
       <c r="F38" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G38" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H38" t="n">
         <v>33.50263894448064</v>
@@ -7174,22 +7174,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J38" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K38" t="n">
-        <v>353.2054048885382</v>
+        <v>189.9732033133744</v>
       </c>
       <c r="L38" t="n">
-        <v>693.5999501226768</v>
+        <v>540.0896499468181</v>
       </c>
       <c r="M38" t="n">
-        <v>1099.778502692426</v>
+        <v>946.2682025165675</v>
       </c>
       <c r="N38" t="n">
-        <v>1099.778502692426</v>
+        <v>1344.387151167685</v>
       </c>
       <c r="O38" t="n">
-        <v>1430.523298748773</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P38" t="n">
         <v>1675.131947224032</v>
@@ -7198,28 +7198,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="U38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="V38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="W38" t="n">
-        <v>1592.809002906596</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="X38" t="n">
-        <v>1219.343244645517</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Y38" t="n">
-        <v>1219.343244645517</v>
+        <v>1675.131947224032</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>578.3282172640336</v>
+        <v>596.3675033131012</v>
       </c>
       <c r="C39" t="n">
-        <v>403.8751879829066</v>
+        <v>421.9144740319742</v>
       </c>
       <c r="D39" t="n">
-        <v>254.9407783216553</v>
+        <v>272.980064370723</v>
       </c>
       <c r="E39" t="n">
-        <v>95.70332331619983</v>
+        <v>113.7426093652675</v>
       </c>
       <c r="F39" t="n">
         <v>33.50263894448064</v>
@@ -7253,52 +7253,52 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J39" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K39" t="n">
-        <v>33.50263894448064</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L39" t="n">
-        <v>388.6446835604599</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M39" t="n">
-        <v>438.8922876817837</v>
+        <v>976.5588577262107</v>
       </c>
       <c r="N39" t="n">
-        <v>853.4874446197316</v>
+        <v>996.4747277732192</v>
       </c>
       <c r="O39" t="n">
-        <v>1239.410475716979</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P39" t="n">
-        <v>1532.144664070544</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q39" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R39" t="n">
-        <v>1610.484233871785</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S39" t="n">
-        <v>1447.992990704324</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T39" t="n">
-        <v>1248.177372962722</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U39" t="n">
-        <v>1248.177372962722</v>
+        <v>1247.131410515331</v>
       </c>
       <c r="V39" t="n">
-        <v>1248.177372962722</v>
+        <v>1011.979302283588</v>
       </c>
       <c r="W39" t="n">
-        <v>993.9400162345203</v>
+        <v>1011.979302283588</v>
       </c>
       <c r="X39" t="n">
-        <v>786.0885160289874</v>
+        <v>804.1278020780551</v>
       </c>
       <c r="Y39" t="n">
-        <v>578.3282172640336</v>
+        <v>596.3675033131012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="C40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="D40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="E40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="F40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="G40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="H40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="I40" t="n">
         <v>33.50263894448064</v>
@@ -7335,7 +7335,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7353,31 +7353,31 @@
         <v>547.8126372605955</v>
       </c>
       <c r="Q40" t="n">
-        <v>502.0749996710317</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R40" t="n">
-        <v>345.1646592661107</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="S40" t="n">
-        <v>261.6436063940308</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="T40" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="U40" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="V40" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="W40" t="n">
-        <v>33.50263894448064</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="X40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.50263894448064</v>
+        <v>175.6929043795484</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>561.9857395012555</v>
+        <v>391.7683375512311</v>
       </c>
       <c r="C41" t="n">
-        <v>561.9857395012555</v>
+        <v>391.7683375512311</v>
       </c>
       <c r="D41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H41" t="n">
-        <v>203.720040894505</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I41" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J41" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K41" t="n">
-        <v>353.2054048885382</v>
+        <v>273.5821148104869</v>
       </c>
       <c r="L41" t="n">
-        <v>703.3218515219819</v>
+        <v>595.1904057756165</v>
       </c>
       <c r="M41" t="n">
-        <v>703.3218515219819</v>
+        <v>595.1904057756165</v>
       </c>
       <c r="N41" t="n">
-        <v>993.3093544267339</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O41" t="n">
         <v>1324.054150483081</v>
@@ -7435,28 +7435,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R41" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S41" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="T41" t="n">
-        <v>1674.819993096571</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.819993096571</v>
+        <v>1118.002751082425</v>
       </c>
       <c r="V41" t="n">
-        <v>1674.819993096571</v>
+        <v>1118.002751082425</v>
       </c>
       <c r="W41" t="n">
-        <v>1322.051337826457</v>
+        <v>765.234095812311</v>
       </c>
       <c r="X41" t="n">
-        <v>948.5855795653772</v>
+        <v>391.7683375512311</v>
       </c>
       <c r="Y41" t="n">
-        <v>948.5855795653772</v>
+        <v>391.7683375512311</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>734.0397365591734</v>
+        <v>637.2518367636733</v>
       </c>
       <c r="C42" t="n">
-        <v>734.0397365591734</v>
+        <v>462.7988074825463</v>
       </c>
       <c r="D42" t="n">
-        <v>585.1053268979222</v>
+        <v>313.864397821295</v>
       </c>
       <c r="E42" t="n">
-        <v>425.8678718924667</v>
+        <v>154.6269428158395</v>
       </c>
       <c r="F42" t="n">
-        <v>279.3333139193517</v>
+        <v>154.6269428158395</v>
       </c>
       <c r="G42" t="n">
-        <v>141.1907178089486</v>
+        <v>154.6269428158395</v>
       </c>
       <c r="H42" t="n">
-        <v>33.50263894448064</v>
+        <v>46.9388639513715</v>
       </c>
       <c r="I42" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J42" t="n">
-        <v>87.23234535782009</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K42" t="n">
-        <v>305.6858146747525</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L42" t="n">
-        <v>305.6858146747525</v>
+        <v>388.6446835604599</v>
       </c>
       <c r="M42" t="n">
-        <v>581.8795708352711</v>
+        <v>803.2398404984078</v>
       </c>
       <c r="N42" t="n">
-        <v>996.474727773219</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O42" t="n">
-        <v>1382.397758870467</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P42" t="n">
-        <v>1675.131947224032</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.131947224032</v>
@@ -7517,25 +7517,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S42" t="n">
-        <v>1512.640704056571</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T42" t="n">
-        <v>1312.825086314969</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U42" t="n">
-        <v>1084.64016734787</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="V42" t="n">
-        <v>849.4880591161273</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="W42" t="n">
-        <v>849.4880591161273</v>
+        <v>1221.078972754228</v>
       </c>
       <c r="X42" t="n">
-        <v>734.0397365591734</v>
+        <v>1013.227472548695</v>
       </c>
       <c r="Y42" t="n">
-        <v>734.0397365591734</v>
+        <v>805.4671737837414</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G43" t="n">
         <v>33.50263894448064</v>
@@ -7572,7 +7572,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7593,28 +7593,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R43" t="n">
-        <v>491.8815867722305</v>
+        <v>479.3287093343728</v>
       </c>
       <c r="S43" t="n">
-        <v>491.8815867722305</v>
+        <v>261.6436063940308</v>
       </c>
       <c r="T43" t="n">
-        <v>491.8815867722305</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="U43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="V43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="W43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="X43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>444.4885437340882</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="C44" t="n">
-        <v>444.4885437340882</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="D44" t="n">
-        <v>444.4885437340882</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="E44" t="n">
-        <v>444.4885437340882</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="F44" t="n">
-        <v>33.50263894448064</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="G44" t="n">
-        <v>33.50263894448064</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="H44" t="n">
         <v>33.50263894448064</v>
@@ -7648,25 +7648,25 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J44" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K44" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L44" t="n">
-        <v>463.2423756559756</v>
+        <v>383.6190855779243</v>
       </c>
       <c r="M44" t="n">
-        <v>869.420928225725</v>
+        <v>789.7976381476738</v>
       </c>
       <c r="N44" t="n">
-        <v>1267.539876876843</v>
+        <v>1099.778502692426</v>
       </c>
       <c r="O44" t="n">
-        <v>1324.054150483081</v>
+        <v>1430.523298748773</v>
       </c>
       <c r="P44" t="n">
-        <v>1568.66279895834</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q44" t="n">
         <v>1675.131947224032</v>
@@ -7678,22 +7678,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T44" t="n">
-        <v>1454.595215036255</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="U44" t="n">
-        <v>1454.595215036255</v>
+        <v>1467.377139087837</v>
       </c>
       <c r="V44" t="n">
-        <v>1454.595215036255</v>
+        <v>1136.314251744266</v>
       </c>
       <c r="W44" t="n">
-        <v>1101.82655976614</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="X44" t="n">
-        <v>1101.82655976614</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="Y44" t="n">
-        <v>831.08838379821</v>
+        <v>783.5455964741523</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>721.9172746161765</v>
+        <v>662.6620908654295</v>
       </c>
       <c r="C45" t="n">
-        <v>547.4642453350496</v>
+        <v>488.2090615843024</v>
       </c>
       <c r="D45" t="n">
-        <v>547.4642453350496</v>
+        <v>339.2746519230512</v>
       </c>
       <c r="E45" t="n">
-        <v>388.2267903295941</v>
+        <v>180.0371969175957</v>
       </c>
       <c r="F45" t="n">
-        <v>241.6922323564791</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G45" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I45" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J45" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K45" t="n">
-        <v>251.9561082614131</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L45" t="n">
-        <v>433.5270640551972</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M45" t="n">
-        <v>438.8922876817837</v>
+        <v>666.1930829173184</v>
       </c>
       <c r="N45" t="n">
-        <v>853.4874446197316</v>
+        <v>1080.788239855266</v>
       </c>
       <c r="O45" t="n">
-        <v>1239.410475716979</v>
+        <v>1466.711270952514</v>
       </c>
       <c r="P45" t="n">
-        <v>1532.144664070544</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q45" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R45" t="n">
-        <v>1610.484233871785</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S45" t="n">
-        <v>1540.896518838474</v>
+        <v>1513.115321322401</v>
       </c>
       <c r="T45" t="n">
-        <v>1540.896518838474</v>
+        <v>1313.299703580798</v>
       </c>
       <c r="U45" t="n">
-        <v>1540.896518838474</v>
+        <v>1085.114784613699</v>
       </c>
       <c r="V45" t="n">
-        <v>1305.744410606731</v>
+        <v>1085.114784613699</v>
       </c>
       <c r="W45" t="n">
-        <v>1305.744410606731</v>
+        <v>830.8774278854976</v>
       </c>
       <c r="X45" t="n">
-        <v>1097.892910401198</v>
+        <v>830.8774278854976</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.1326116362445</v>
+        <v>830.8774278854976</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1675.131947224032</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="C46" t="n">
-        <v>1675.131947224032</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="D46" t="n">
-        <v>1675.131947224032</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="E46" t="n">
-        <v>1527.218853641639</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="F46" t="n">
-        <v>1380.328906143729</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="G46" t="n">
-        <v>1320.303212870179</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H46" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I46" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J46" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>1194.930236432115</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L46" t="n">
-        <v>1294.103535993664</v>
+        <v>166.784226030228</v>
       </c>
       <c r="M46" t="n">
-        <v>1409.056998353172</v>
+        <v>281.7376883897361</v>
       </c>
       <c r="N46" t="n">
-        <v>1526.711740733246</v>
+        <v>399.3924307698099</v>
       </c>
       <c r="O46" t="n">
-        <v>1619.368642778629</v>
+        <v>492.0493328151924</v>
       </c>
       <c r="P46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Q46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W46" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="X46" t="n">
-        <v>1675.131947224032</v>
+        <v>531.2357575193977</v>
       </c>
       <c r="Y46" t="n">
-        <v>1675.131947224032</v>
+        <v>531.2357575193977</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>107.0249134850079</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K11" t="n">
-        <v>81.64089149439079</v>
+        <v>212.8424216770731</v>
       </c>
       <c r="L11" t="n">
-        <v>64.00823815303261</v>
+        <v>189.908696409142</v>
       </c>
       <c r="M11" t="n">
-        <v>170.4336974434447</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N11" t="n">
-        <v>166.4081024218203</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O11" t="n">
-        <v>46.71452868057705</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9207954498629</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8777,19 +8777,19 @@
         <v>143.3125374902029</v>
       </c>
       <c r="M12" t="n">
-        <v>46.09156927940774</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>135.2426059268386</v>
+        <v>50.13264502356412</v>
       </c>
       <c r="P12" t="n">
-        <v>22.77166929290142</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.64568859091231</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>212.8424216770731</v>
       </c>
       <c r="L14" t="n">
-        <v>195.209768335715</v>
+        <v>133.1380666486491</v>
       </c>
       <c r="M14" t="n">
-        <v>170.4336974434447</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N14" t="n">
-        <v>35.20657223913796</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O14" t="n">
-        <v>172.6149869366864</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P14" t="n">
-        <v>74.71926526718059</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K15" t="n">
-        <v>43.80516699547515</v>
+        <v>144.1691669954279</v>
       </c>
       <c r="L15" t="n">
-        <v>132.5920477589969</v>
+        <v>143.3125374902029</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.041075744156217</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P15" t="n">
-        <v>153.9731994755838</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.8472187735946</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>81.64089149439079</v>
+        <v>127.1137840150948</v>
       </c>
       <c r="L17" t="n">
         <v>195.209768335715</v>
       </c>
       <c r="M17" t="n">
-        <v>108.3619957563788</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N17" t="n">
-        <v>35.20657223913796</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O17" t="n">
-        <v>46.71452868057705</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9207954498629</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K18" t="n">
         <v>175.0066971781575</v>
       </c>
       <c r="L18" t="n">
-        <v>143.3125374902029</v>
+        <v>132.592047758997</v>
       </c>
       <c r="M18" t="n">
-        <v>125.7821123780494</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O18" t="n">
-        <v>4.041075744156217</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P18" t="n">
-        <v>74.28265637694206</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.64568859091231</v>
+        <v>65.64568859091233</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>88.66904943666836</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K20" t="n">
-        <v>81.64089149439079</v>
+        <v>207.5413497505002</v>
       </c>
       <c r="L20" t="n">
         <v>195.209768335715</v>
       </c>
       <c r="M20" t="n">
-        <v>57.58803130910192</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N20" t="n">
-        <v>166.4081024218203</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O20" t="n">
-        <v>46.71452868057705</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9207954498629</v>
+        <v>74.71926526718062</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L21" t="n">
-        <v>12.11100730752052</v>
+        <v>58.20257658692839</v>
       </c>
       <c r="M21" t="n">
-        <v>100.3639999999526</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.2426059268386</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755838</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.8472187735946</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>90.27789955842279</v>
       </c>
       <c r="K24" t="n">
-        <v>152.4236303584262</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>90.27789955842279</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>209.2318579509104</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>152.4236303584262</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>222.8691685444641</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>222.8691685444641</v>
+        <v>277.1415992650091</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>140.660686823068</v>
       </c>
       <c r="M35" t="n">
-        <v>344.5217030062495</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>46.71452868057705</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>66.09433648285925</v>
+        <v>169.069183490308</v>
       </c>
       <c r="N36" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>22.77166929290142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>239.6919666144855</v>
       </c>
       <c r="L38" t="n">
-        <v>407.8411121269099</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>35.20657223913796</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q38" t="n">
         <v>104.7703964521349</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>45.33573787347198</v>
+        <v>313.5007826352448</v>
       </c>
       <c r="N39" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>388.8650977137696</v>
       </c>
       <c r="M41" t="n">
         <v>39.23216726076237</v>
       </c>
       <c r="N41" t="n">
-        <v>328.1232418398976</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L42" t="n">
-        <v>12.11100730752052</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>273.5641742766991</v>
+        <v>413.3635690013751</v>
       </c>
       <c r="N42" t="n">
-        <v>398.6659463544842</v>
+        <v>30.63811522658129</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K44" t="n">
         <v>81.64089149439079</v>
@@ -11308,16 +11308,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>348.3185566277767</v>
       </c>
       <c r="O44" t="n">
-        <v>103.7996535353627</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>195.5160131598277</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>398.6659463544842</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>233.2976049206976</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.671248752835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>372.813452831066</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H11" t="n">
-        <v>328.3281935684761</v>
+        <v>197.1266633857938</v>
       </c>
       <c r="I11" t="n">
-        <v>168.5152279305241</v>
+        <v>37.31369774784181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0570504748152</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0364084733713</v>
       </c>
     </row>
     <row r="12">
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>57.14619120340912</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>16.24353538195643</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23357,7 +23357,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S12" t="n">
-        <v>114.6505502794587</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T12" t="n">
-        <v>66.61593138150411</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U12" t="n">
         <v>225.903069777428</v>
@@ -23399,13 +23399,13 @@
         <v>101.5990569667429</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.48116559462201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>48.63044999925498</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>17.41394283553001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,10 +23436,10 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I13" t="n">
-        <v>25.20605499581049</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J13" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S13" t="n">
-        <v>215.5082519109386</v>
+        <v>99.94594412603199</v>
       </c>
       <c r="T13" t="n">
-        <v>225.8595577750547</v>
+        <v>94.65802759237235</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0908689824907</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>94.50812520635483</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.38312316941244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>331.210298860362</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>250.7288398895794</v>
+        <v>347.8677771616163</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1266633857937</v>
+        <v>197.1266633857938</v>
       </c>
       <c r="I14" t="n">
         <v>168.5152279305241</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>184.2180832787735</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T14" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321721</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0570504748152</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.3174031935402</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>29.50690460847727</v>
       </c>
       <c r="G15" t="n">
         <v>136.761170149299</v>
@@ -23594,7 +23594,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S15" t="n">
-        <v>160.8663307357858</v>
+        <v>29.66480055310345</v>
       </c>
       <c r="T15" t="n">
-        <v>66.61593138150411</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
-        <v>94.70153959474564</v>
+        <v>94.70153959474567</v>
       </c>
       <c r="V15" t="n">
-        <v>101.5990569667429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23676,7 +23676,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
-        <v>155.3412370008718</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S16" t="n">
-        <v>215.5082519109386</v>
+        <v>84.30672172825624</v>
       </c>
       <c r="T16" t="n">
-        <v>169.1392637937462</v>
+        <v>94.65802759237235</v>
       </c>
       <c r="U16" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V16" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>94.5081252063548</v>
+        <v>110.1473476041305</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.38312316941244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>234.0713615883252</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>223.4815114380006</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>347.8677771616163</v>
       </c>
       <c r="F17" t="n">
-        <v>275.6745155590291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H17" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I17" t="n">
-        <v>168.5152279305241</v>
+        <v>37.31369774784181</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>184.2180832787735</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>233.6786609325064</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>41.50696880563339</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.761170149299</v>
+        <v>127.8100604402157</v>
       </c>
       <c r="H18" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>69.34652732857948</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T18" t="n">
-        <v>66.61593138150411</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U18" t="n">
-        <v>94.70153959474564</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V18" t="n">
-        <v>181.2395155832432</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>74.57145502079516</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462204</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>48.63044999925498</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>51.68451331372123</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J19" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R19" t="n">
-        <v>24.13970681818944</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S19" t="n">
-        <v>215.5082519109386</v>
+        <v>84.30672172825624</v>
       </c>
       <c r="T19" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U19" t="n">
-        <v>155.0908689824907</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V19" t="n">
-        <v>181.8555967525895</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>251.5323114807983</v>
       </c>
       <c r="C20" t="n">
-        <v>331.2102988603621</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>250.7288398895794</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S20" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T20" t="n">
-        <v>87.12983468321718</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U20" t="n">
-        <v>120.0570504748152</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>233.6786609325064</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>238.5295704957867</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0364084733713</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>41.50696880563339</v>
+        <v>41.50696880563342</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>16.24353538195643</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>13.86768221070156</v>
       </c>
       <c r="G21" t="n">
         <v>136.761170149299</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S21" t="n">
-        <v>109.3052591696037</v>
+        <v>45.3040229508792</v>
       </c>
       <c r="T21" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U21" t="n">
-        <v>94.70153959474564</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.48116559462201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>33.05316523330563</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J22" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R22" t="n">
-        <v>24.13970681818944</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S22" t="n">
-        <v>99.94594412603193</v>
+        <v>84.30672172825624</v>
       </c>
       <c r="T22" t="n">
         <v>225.8595577750547</v>
@@ -24186,7 +24186,7 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V22" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>155.3214681539087</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>372.1402224098999</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>328.3281935684761</v>
+        <v>186.5598886305841</v>
       </c>
       <c r="I23" t="n">
         <v>168.5152279305241</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.968067814731199</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>47.26068776360293</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.5027591842993</v>
@@ -24387,7 +24387,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J25" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R25" t="n">
         <v>155.3412370008718</v>
@@ -24417,16 +24417,16 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2923991651731</v>
+        <v>238.4088429719909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>48.4959189923602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>47.85253685768276</v>
+        <v>185.8850979428805</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U26" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>137.8426993142315</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>115.7638685908747</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I27" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>38.53340116215142</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T28" t="n">
         <v>225.8595577750547</v>
@@ -24660,7 +24660,7 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
-        <v>113.8202339026848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2143343858988</v>
+        <v>394.5136636479651</v>
       </c>
       <c r="H29" t="n">
-        <v>43.4902718736991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.78380235250611</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>100.5780285669877</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I31" t="n">
-        <v>140.7683627807171</v>
+        <v>2.450953359573845</v>
       </c>
       <c r="J31" t="n">
         <v>58.84201380359813</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R31" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U31" t="n">
         <v>286.2923991651731</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>264.0041709032987</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>261.850703989114</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,10 +24934,10 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H32" t="n">
-        <v>328.3281935684761</v>
+        <v>178.0002069584955</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>102.373820787861</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>43.00393466030042</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.803553203787</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S34" t="n">
-        <v>132.8224095675795</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U34" t="n">
         <v>286.2923991651731</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S35" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>26.65655128955532</v>
       </c>
       <c r="U35" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>82.35998733274698</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>170.5151270169387</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.8688888643022</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,10 +25359,10 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R37" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.8595577750547</v>
@@ -25371,10 +25371,10 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49374332746532</v>
+        <v>148.2055889154477</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>266.2831756723884</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>333.2245400460917</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I38" t="n">
         <v>168.5152279305241</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S38" t="n">
         <v>184.2180832787735</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>83.49053486538187</v>
+        <v>65.63164167680493</v>
       </c>
       <c r="G39" t="n">
         <v>136.761170149299</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I40" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>58.84201380359813</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>132.8224095675795</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U40" t="n">
         <v>286.2923991651731</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>12.65235683767239</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25648,7 +25648,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.0225302797134</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2585806574976</v>
+        <v>183.749839496241</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>69.34652732857948</v>
+        <v>56.04466457175754</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>91.4791458720932</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H43" t="n">
         <v>157.8864513226399</v>
@@ -25833,16 +25833,16 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R43" t="n">
-        <v>99.96949701739052</v>
+        <v>87.54214835391133</v>
       </c>
       <c r="S43" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25918,13 +25918,13 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2585806574976</v>
+        <v>45.58132060266439</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>118.2071444478024</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H45" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S45" t="n">
-        <v>91.97449285280807</v>
+        <v>0.4698710931706671</v>
       </c>
       <c r="T45" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.0773228434856</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I46" t="n">
         <v>140.7683627807171</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.2985444452513</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364939.9196215648</v>
+        <v>364939.9196215646</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364939.9196215646</v>
+        <v>364939.9196215647</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>364939.9196215649</v>
+        <v>364939.9196215648</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639079.0800551542</v>
+        <v>639079.0800551543</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639079.0800551543</v>
+        <v>639079.0800551542</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639079.0800551544</v>
+        <v>639079.0800551542</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>553193.3624757436</v>
+        <v>553193.3624757439</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553193.3624757438</v>
+        <v>553193.3624757439</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>553193.3624757436</v>
+        <v>553193.3624757441</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377788</v>
@@ -26322,7 +26322,7 @@
         <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
-        <v>232585.0077031984</v>
+        <v>232585.0077031983</v>
       </c>
       <c r="F2" t="n">
         <v>232585.0077031984</v>
@@ -26331,31 +26331,31 @@
         <v>232585.0077031983</v>
       </c>
       <c r="H2" t="n">
-        <v>232585.0077031984</v>
+        <v>232585.0077031983</v>
       </c>
       <c r="I2" t="n">
-        <v>381291.9985937017</v>
+        <v>381291.9985937016</v>
       </c>
       <c r="J2" t="n">
-        <v>381291.9985937017</v>
+        <v>381291.9985937016</v>
       </c>
       <c r="K2" t="n">
         <v>381291.9985937017</v>
       </c>
       <c r="L2" t="n">
-        <v>381291.9985937017</v>
+        <v>381291.9985937016</v>
       </c>
       <c r="M2" t="n">
         <v>334703.2273962363</v>
       </c>
       <c r="N2" t="n">
-        <v>334703.2273962363</v>
+        <v>334703.2273962362</v>
       </c>
       <c r="O2" t="n">
         <v>334703.2273962363</v>
       </c>
       <c r="P2" t="n">
-        <v>334703.2273962363</v>
+        <v>334703.2273962362</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256687.4423642919</v>
+        <v>256687.4423642918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111363.1906344404</v>
+        <v>111363.1906344405</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>54940.34762298816</v>
+        <v>54940.34762298817</v>
       </c>
       <c r="F4" t="n">
         <v>54940.34762298816</v>
       </c>
       <c r="G4" t="n">
-        <v>54940.34762298815</v>
+        <v>54940.34762298816</v>
       </c>
       <c r="H4" t="n">
-        <v>54940.34762298815</v>
+        <v>54940.34762298816</v>
       </c>
       <c r="I4" t="n">
         <v>131106.9728928918</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="F5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="G5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="H5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="I5" t="n">
         <v>39341.19670197842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155306.5148716751</v>
+        <v>155262.3790929942</v>
       </c>
       <c r="C6" t="n">
-        <v>155306.5148716753</v>
+        <v>155262.3790929941</v>
       </c>
       <c r="D6" t="n">
-        <v>155306.5148716751</v>
+        <v>155262.379092994</v>
       </c>
       <c r="E6" t="n">
-        <v>-92921.97338825485</v>
+        <v>-105695.1840447554</v>
       </c>
       <c r="F6" t="n">
-        <v>163765.4689760371</v>
+        <v>150992.2583195366</v>
       </c>
       <c r="G6" t="n">
-        <v>163765.468976037</v>
+        <v>150992.2583195365</v>
       </c>
       <c r="H6" t="n">
-        <v>163765.4689760371</v>
+        <v>150992.2583195365</v>
       </c>
       <c r="I6" t="n">
-        <v>99480.63836439111</v>
+        <v>91664.32740424057</v>
       </c>
       <c r="J6" t="n">
-        <v>210843.8289988315</v>
+        <v>203027.5180386811</v>
       </c>
       <c r="K6" t="n">
-        <v>210843.8289988315</v>
+        <v>203027.5180386811</v>
       </c>
       <c r="L6" t="n">
-        <v>210843.8289988315</v>
+        <v>203027.518038681</v>
       </c>
       <c r="M6" t="n">
-        <v>196094.5362431945</v>
+        <v>186725.2662431286</v>
       </c>
       <c r="N6" t="n">
-        <v>196094.5362431945</v>
+        <v>186725.2662431284</v>
       </c>
       <c r="O6" t="n">
-        <v>196094.5362431945</v>
+        <v>186725.2662431286</v>
       </c>
       <c r="P6" t="n">
-        <v>196094.5362431945</v>
+        <v>186725.2662431285</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.7829868060078</v>
+        <v>418.782986806008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J11" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K11" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L11" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M11" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N11" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O11" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P11" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q11" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R11" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S11" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T11" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H12" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J12" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K12" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L12" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M12" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N12" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O12" t="n">
         <v>138.5551687002882</v>
@@ -31861,10 +31861,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R12" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S12" t="n">
         <v>10.81684036805206</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H13" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I13" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J13" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K13" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L13" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M13" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N13" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O13" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P13" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S13" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T13" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J14" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K14" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L14" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M14" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N14" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O14" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P14" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q14" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R14" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S14" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T14" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H15" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J15" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K15" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L15" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M15" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N15" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O15" t="n">
         <v>138.5551687002882</v>
@@ -32098,10 +32098,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R15" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S15" t="n">
         <v>10.81684036805206</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H16" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I16" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J16" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K16" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L16" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M16" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N16" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O16" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P16" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S16" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T16" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J17" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K17" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L17" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M17" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N17" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O17" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P17" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q17" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R17" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S17" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T17" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H18" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J18" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K18" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L18" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M18" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N18" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O18" t="n">
         <v>138.5551687002882</v>
@@ -32335,10 +32335,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R18" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S18" t="n">
         <v>10.81684036805206</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H19" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I19" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J19" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K19" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L19" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M19" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N19" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O19" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P19" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R19" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S19" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T19" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J20" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K20" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L20" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M20" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N20" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O20" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P20" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q20" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R20" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S20" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T20" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H21" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J21" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K21" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L21" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M21" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N21" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O21" t="n">
         <v>138.5551687002882</v>
@@ -32572,10 +32572,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R21" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S21" t="n">
         <v>10.81684036805206</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H22" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I22" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J22" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K22" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L22" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M22" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N22" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O22" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P22" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R22" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S22" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T22" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,40 +32709,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J23" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K23" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L23" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M23" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N23" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O23" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P23" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q23" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R23" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S23" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T23" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H24" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I24" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J24" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K24" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L24" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M24" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N24" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O24" t="n">
         <v>138.5551687002882</v>
@@ -32809,10 +32809,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R24" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S24" t="n">
         <v>10.81684036805206</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H25" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I25" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J25" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K25" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L25" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M25" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N25" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O25" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P25" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R25" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S25" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T25" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.35586404833954</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="M11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>131.2015301826823</v>
@@ -35430,7 +35430,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K12" t="n">
         <v>131.2015301826823</v>
@@ -35497,19 +35497,19 @@
         <v>131.2015301826823</v>
       </c>
       <c r="M12" t="n">
-        <v>51.51098708404064</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N12" t="n">
-        <v>20.11704045152376</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O12" t="n">
+        <v>46.09156927940787</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35582,10 +35582,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O13" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P13" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="L14" t="n">
+        <v>69.12982849561647</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M14" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>125.9004582561093</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="L15" t="n">
-        <v>120.4810404514764</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M15" t="n">
-        <v>5.4194178046329</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N15" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O15" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>131.2015301826823</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L16" t="n">
         <v>100.1750500621707</v>
@@ -35819,10 +35819,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O16" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P16" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>45.47289252070394</v>
       </c>
       <c r="L17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M17" t="n">
-        <v>69.12982849561647</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="L18" t="n">
+        <v>120.4810404514765</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.419417804632872</v>
+      </c>
+      <c r="N18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="N18" t="n">
-        <v>20.11704045152376</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>51.51098708404064</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L19" t="n">
         <v>100.1750500621707</v>
@@ -36056,10 +36056,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O19" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P19" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="L20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M20" t="n">
-        <v>18.35586404833955</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N20" t="n">
         <v>131.2015301826823</v>
@@ -36138,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>46.09156927940784</v>
       </c>
       <c r="M21" t="n">
-        <v>105.7834178045855</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N21" t="n">
-        <v>20.11704045152376</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>131.2015301826823</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L22" t="n">
         <v>100.1750500621707</v>
@@ -36293,10 +36293,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O22" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P22" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K23" t="n">
-        <v>242.504521076774</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L23" t="n">
         <v>353.6529763974178</v>
@@ -36372,13 +36372,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O23" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P23" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>54.2724307205449</v>
+        <v>18.45929493855884</v>
       </c>
       <c r="K24" t="n">
-        <v>108.618463362951</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>358.7293379959386</v>
@@ -36448,16 +36448,16 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N24" t="n">
-        <v>499.4594147950773</v>
+        <v>499.4594147950772</v>
       </c>
       <c r="O24" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P24" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L25" t="n">
         <v>100.1750500621707</v>
@@ -36530,10 +36530,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O25" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P25" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540493</v>
       </c>
       <c r="K26" t="n">
         <v>242.504521076774</v>
@@ -36603,7 +36603,7 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M26" t="n">
-        <v>410.2813662320697</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N26" t="n">
         <v>402.1403521728462</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.2724307205449</v>
+        <v>18.45929493855884</v>
       </c>
       <c r="K27" t="n">
-        <v>220.6600700171035</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M27" t="n">
-        <v>214.6512757555433</v>
+        <v>471.1244815546328</v>
       </c>
       <c r="N27" t="n">
         <v>499.4594147950773</v>
@@ -36840,7 +36840,7 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M29" t="n">
-        <v>410.2813662320697</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N29" t="n">
         <v>402.1403521728462</v>
@@ -36913,7 +36913,7 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K30" t="n">
-        <v>220.6600700171035</v>
+        <v>108.618463362951</v>
       </c>
       <c r="L30" t="n">
         <v>358.7293379959386</v>
@@ -36922,7 +36922,7 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N30" t="n">
-        <v>242.9862089959879</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O30" t="n">
         <v>389.8212435325733</v>
@@ -36931,7 +36931,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q30" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>80.42756573540541</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5045210767735</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L32" t="n">
         <v>353.6529763974178</v>
@@ -37083,7 +37083,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O32" t="n">
-        <v>334.0856525821683</v>
+        <v>334.085652582168</v>
       </c>
       <c r="P32" t="n">
         <v>247.0794429043021</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>220.6600700171035</v>
@@ -37159,7 +37159,7 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N33" t="n">
-        <v>242.9862089959879</v>
+        <v>297.2586397165329</v>
       </c>
       <c r="O33" t="n">
         <v>389.8212435325733</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K35" t="n">
-        <v>242.504521076774</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>353.6529763974178</v>
+        <v>76.6524486700354</v>
       </c>
       <c r="M35" t="n">
-        <v>305.2895357454871</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N35" t="n">
         <v>402.1403521728462</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P35" t="n">
         <v>247.0794429043021</v>
@@ -37393,16 +37393,16 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M36" t="n">
-        <v>71.51375428749215</v>
+        <v>174.4886012949409</v>
       </c>
       <c r="N36" t="n">
-        <v>418.782986806008</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O36" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q36" t="n">
         <v>144.4315991449368</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>242.504521076774</v>
+        <v>158.0510751200947</v>
       </c>
       <c r="L38" t="n">
-        <v>343.8328739738773</v>
+        <v>353.6529763974178</v>
       </c>
       <c r="M38" t="n">
         <v>410.2813662320701</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O38" t="n">
         <v>334.0856525821683</v>
       </c>
       <c r="P38" t="n">
-        <v>247.0794429043021</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L39" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M39" t="n">
-        <v>50.75515567810488</v>
+        <v>318.9202004398777</v>
       </c>
       <c r="N39" t="n">
-        <v>418.782986806008</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O39" t="n">
         <v>389.8212435325733</v>
@@ -37642,7 +37642,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q39" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>242.504521076774</v>
       </c>
       <c r="L41" t="n">
-        <v>353.6529763974178</v>
+        <v>324.856859560737</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>292.9166696007596</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O41" t="n">
         <v>334.0856525821683</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>220.6600700171035</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>278.9835920813319</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N42" t="n">
-        <v>418.782986806008</v>
+        <v>50.75515567810506</v>
       </c>
       <c r="O42" t="n">
         <v>389.8212435325733</v>
@@ -37879,7 +37879,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>410.2813662320701</v>
       </c>
       <c r="N44" t="n">
-        <v>402.1403521728462</v>
+        <v>313.1119843886388</v>
       </c>
       <c r="O44" t="n">
-        <v>57.08512485478565</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P44" t="n">
         <v>247.0794429043021</v>
       </c>
       <c r="Q44" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K45" t="n">
         <v>220.6600700171035</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4050058523072</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
         <v>5.4194178046329</v>
@@ -38113,10 +38113,10 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P45" t="n">
-        <v>295.6910993470357</v>
+        <v>210.5259356277962</v>
       </c>
       <c r="Q45" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183758.219331447</v>
+        <v>1236875.468847151</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183236</v>
+        <v>4065790.381183235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11996757.38029104</v>
+        <v>11996757.38029105</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7011889.851189751</v>
+        <v>7011889.851189752</v>
       </c>
     </row>
     <row r="11">
@@ -1381,47 +1381,47 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.06259291064544</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>81.49971487426106</v>
+      </c>
+      <c r="S11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="I11" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>81.49971487426107</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>34.06259291064555</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,17 +1451,17 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>115.5623077849066</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>131.2015301826823</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
     </row>
     <row r="13">
@@ -1527,11 +1527,11 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="T13" t="n">
         <v>115.5623077849066</v>
-      </c>
-      <c r="T13" t="n">
-        <v>131.2015301826823</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.06259291064546</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.49971487426107</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="T14" t="n">
+        <v>34.06259291064555</v>
+      </c>
+      <c r="U14" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="F15" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>51.56107156618207</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,64 +1849,64 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>81.49971487426106</v>
+      </c>
+      <c r="S17" t="n">
+        <v>34.06259291064555</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E17" t="n">
-        <v>34.06259291064544</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>81.49971487426107</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8.951109709083267</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,14 +2001,14 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C19" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>115.5623077849066</v>
+        <v>34.06259291064552</v>
       </c>
       <c r="X20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>131.2015301826823</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.951109709083241</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>115.5623077849067</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>197.8677795772543</v>
       </c>
       <c r="G23" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H23" t="n">
-        <v>141.768304937892</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S23" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S24" t="n">
-        <v>113.6056429721828</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T24" t="n">
         <v>197.8174615641865</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>187.2290493267292</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>31.31959962008843</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>47.88355619318219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>168.7979436778024</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.5152279305241</v>
+        <v>24.98961146127854</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>29.3053438025092</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I27" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>160.8663307357858</v>
+        <v>146.285366834293</v>
       </c>
       <c r="T27" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>116.8078358387204</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>222.6438999963626</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>19.70067073793367</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H29" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>278.5999549295304</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>144.9246966358096</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2891,7 +2891,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
-        <v>69.34652732857948</v>
+        <v>52.65415643918581</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>160.8663307357858</v>
@@ -2927,19 +2927,19 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U30" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I31" t="n">
-        <v>138.3174094211432</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>155.3412370008718</v>
+        <v>135.7721950993752</v>
       </c>
       <c r="S31" t="n">
         <v>215.5082519109386</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>288.5758650004253</v>
       </c>
       <c r="H32" t="n">
-        <v>150.3279866099806</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,19 +3116,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>73.01841635787257</v>
       </c>
       <c r="I33" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.6787611170039</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>42.81191981442532</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>257.0292550091256</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>266.8064505766254</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>191.6748135763442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,13 +3350,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.761170149299</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>69.34652732857948</v>
+        <v>66.49888980235144</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
-        <v>49.9974418714836</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>138.3174094211433</v>
+        <v>283.4572429439165</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>116.4506659910921</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>64.4155080999117</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>49.82733928441781</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>79.43757071657895</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.8744991677806</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>213.0572985513648</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2180832787735</v>
+        <v>35.15085474961128</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>67.50874116125665</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>63.38904244058762</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H42" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I42" t="n">
-        <v>13.30186275682195</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T42" t="n">
         <v>197.8174615641865</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.88355619318224</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.79908864696046</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
-        <v>205.6772600548332</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>137.4403291783743</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>160.3964596426151</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T45" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U45" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>108.0490560337743</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5027591842993</v>
+        <v>116.2104218452887</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.41111094378581</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.9563782489682</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C11" t="n">
-        <v>309.9563782489682</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D11" t="n">
-        <v>309.9563782489682</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E11" t="n">
-        <v>309.9563782489682</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F11" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G11" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I11" t="n">
         <v>10.49612241461459</v>
@@ -5044,49 +5044,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K11" t="n">
+        <v>10.49612241461459</v>
+      </c>
+      <c r="L11" t="n">
         <v>140.3856372954701</v>
       </c>
-      <c r="L11" t="n">
-        <v>265.0270909690183</v>
-      </c>
       <c r="M11" t="n">
-        <v>265.0270909690183</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="N11" t="n">
-        <v>394.9166058498738</v>
+        <v>400.1646670571811</v>
       </c>
       <c r="O11" t="n">
-        <v>394.9166058498738</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="P11" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q11" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R11" t="n">
-        <v>442.4831764132938</v>
+        <v>442.483176413294</v>
       </c>
       <c r="S11" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="T11" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="U11" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="V11" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="W11" t="n">
-        <v>442.4831764132938</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="X11" t="n">
-        <v>442.4831764132938</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.9563782489682</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="12">
@@ -5099,13 +5099,13 @@
         <v>259.7525244020782</v>
       </c>
       <c r="C12" t="n">
+        <v>259.7525244020782</v>
+      </c>
+      <c r="D12" t="n">
         <v>143.0229205789402</v>
       </c>
-      <c r="D12" t="n">
-        <v>10.49612241461459</v>
-      </c>
       <c r="E12" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F12" t="n">
         <v>10.49612241461459</v>
@@ -5123,46 +5123,46 @@
         <v>64.22582882795403</v>
       </c>
       <c r="K12" t="n">
-        <v>194.1153437088095</v>
+        <v>194.1153437088096</v>
       </c>
       <c r="L12" t="n">
-        <v>324.004858589665</v>
+        <v>324.0048585896651</v>
       </c>
       <c r="M12" t="n">
-        <v>329.3700822162515</v>
+        <v>329.3700822162517</v>
       </c>
       <c r="N12" t="n">
-        <v>349.28595226326</v>
+        <v>349.2859522632602</v>
       </c>
       <c r="O12" t="n">
-        <v>394.9166058498738</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9166058498738</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="Q12" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R12" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S12" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T12" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="U12" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="V12" t="n">
-        <v>392.2793225664037</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="W12" t="n">
-        <v>259.7525244020782</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="X12" t="n">
-        <v>259.7525244020782</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="Y12" t="n">
         <v>259.7525244020782</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C13" t="n">
         <v>10.49612241461459</v>
@@ -5202,7 +5202,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881294</v>
+        <v>44.60440993881292</v>
       </c>
       <c r="L13" t="n">
         <v>143.7777095003619</v>
@@ -5214,19 +5214,19 @@
         <v>376.3859142399438</v>
       </c>
       <c r="O13" t="n">
-        <v>469.0428162853262</v>
+        <v>469.0428162853264</v>
       </c>
       <c r="P13" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q13" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R13" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S13" t="n">
-        <v>408.0765169075913</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="T13" t="n">
         <v>275.5497187432658</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E14" t="n">
         <v>143.0229205789402</v>
@@ -5278,52 +5278,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J14" t="n">
-        <v>90.11941249266593</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0089273735214</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="L14" t="n">
-        <v>288.4474575841817</v>
+        <v>349.898442254377</v>
       </c>
       <c r="M14" t="n">
-        <v>288.4474575841817</v>
+        <v>349.898442254377</v>
       </c>
       <c r="N14" t="n">
-        <v>288.4474575841817</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="O14" t="n">
-        <v>288.4474575841817</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3369724650372</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="Q14" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R14" t="n">
-        <v>442.4831764132938</v>
+        <v>442.483176413294</v>
       </c>
       <c r="S14" t="n">
-        <v>309.9563782489682</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="T14" t="n">
-        <v>177.4295800846427</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="U14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="V14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.4295800846427</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C15" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D15" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E15" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F15" t="n">
         <v>10.49612241461459</v>
@@ -5360,49 +5360,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K15" t="n">
-        <v>109.8564824145678</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L15" t="n">
-        <v>239.7459972954233</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M15" t="n">
-        <v>245.1112209220098</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="N15" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="O15" t="n">
-        <v>394.9166058498738</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9166058498738</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q15" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R15" t="n">
-        <v>524.8061207307293</v>
+        <v>460.1584073784824</v>
       </c>
       <c r="S15" t="n">
-        <v>392.2793225664037</v>
+        <v>460.1584073784824</v>
       </c>
       <c r="T15" t="n">
-        <v>392.2793225664037</v>
+        <v>460.1584073784824</v>
       </c>
       <c r="U15" t="n">
-        <v>259.7525244020782</v>
+        <v>460.1584073784824</v>
       </c>
       <c r="V15" t="n">
-        <v>259.7525244020782</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="W15" t="n">
-        <v>127.2257262377526</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="X15" t="n">
-        <v>127.2257262377526</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881286</v>
+        <v>44.60440993881295</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5448,34 +5448,34 @@
         <v>258.73117185987</v>
       </c>
       <c r="N16" t="n">
-        <v>376.3859142399438</v>
+        <v>376.3859142399439</v>
       </c>
       <c r="O16" t="n">
-        <v>469.0428162853262</v>
+        <v>469.0428162853264</v>
       </c>
       <c r="P16" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q16" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R16" t="n">
-        <v>392.2793225664037</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="S16" t="n">
-        <v>259.7525244020782</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="T16" t="n">
-        <v>127.2257262377526</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="U16" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V16" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X16" t="n">
         <v>10.49612241461459</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>442.4831764132938</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C17" t="n">
-        <v>442.4831764132938</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D17" t="n">
-        <v>309.9563782489682</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E17" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F17" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I17" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11941249266593</v>
+        <v>90.11941249266594</v>
       </c>
       <c r="K17" t="n">
-        <v>135.1375760881628</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="L17" t="n">
-        <v>265.0270909690183</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="M17" t="n">
-        <v>394.9166058498738</v>
+        <v>220.0089273735215</v>
       </c>
       <c r="N17" t="n">
-        <v>394.9166058498738</v>
+        <v>349.898442254377</v>
       </c>
       <c r="O17" t="n">
-        <v>394.9166058498738</v>
+        <v>349.898442254377</v>
       </c>
       <c r="P17" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="Q17" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R17" t="n">
-        <v>442.4831764132938</v>
+        <v>442.483176413294</v>
       </c>
       <c r="S17" t="n">
-        <v>442.4831764132938</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="T17" t="n">
-        <v>442.4831764132938</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="U17" t="n">
-        <v>442.4831764132938</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V17" t="n">
-        <v>442.4831764132938</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W17" t="n">
-        <v>442.4831764132938</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X17" t="n">
-        <v>442.4831764132938</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y17" t="n">
-        <v>442.4831764132938</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="18">
@@ -5573,19 +5573,19 @@
         <v>127.2257262377526</v>
       </c>
       <c r="C18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F18" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G18" t="n">
-        <v>118.1842012790826</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H18" t="n">
         <v>10.49612241461459</v>
@@ -5606,40 +5606,40 @@
         <v>265.0270909690183</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9166058498738</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="O18" t="n">
-        <v>394.9166058498738</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="P18" t="n">
-        <v>524.8061207307293</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="Q18" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R18" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S18" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T18" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="U18" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="V18" t="n">
-        <v>392.2793225664037</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="W18" t="n">
-        <v>392.2793225664037</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="X18" t="n">
         <v>259.7525244020782</v>
       </c>
       <c r="Y18" t="n">
-        <v>127.2257262377526</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.2257262377526</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="C19" t="n">
-        <v>10.49612241461459</v>
+        <v>408.0765169075914</v>
       </c>
       <c r="D19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="E19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="F19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="G19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="H19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="I19" t="n">
         <v>10.49612241461459</v>
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881294</v>
+        <v>44.60440993881295</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5685,40 +5685,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N19" t="n">
-        <v>376.3859142399438</v>
+        <v>376.3859142399439</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853262</v>
+        <v>469.0428162853264</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q19" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R19" t="n">
-        <v>392.2793225664037</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="U19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="V19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="W19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="X19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Y19" t="n">
-        <v>259.7525244020782</v>
+        <v>524.8061207307294</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G20" t="n">
         <v>10.49612241461459</v>
@@ -5755,46 +5755,46 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K20" t="n">
-        <v>135.1375760881628</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L20" t="n">
-        <v>265.0270909690183</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="M20" t="n">
-        <v>394.9166058498738</v>
+        <v>28.66842782247073</v>
       </c>
       <c r="N20" t="n">
-        <v>524.8061207307293</v>
+        <v>158.5579427033263</v>
       </c>
       <c r="O20" t="n">
-        <v>524.8061207307293</v>
+        <v>288.4474575841818</v>
       </c>
       <c r="P20" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650373</v>
       </c>
       <c r="Q20" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R20" t="n">
-        <v>524.8061207307293</v>
+        <v>442.483176413294</v>
       </c>
       <c r="S20" t="n">
-        <v>524.8061207307293</v>
+        <v>442.483176413294</v>
       </c>
       <c r="T20" t="n">
-        <v>524.8061207307293</v>
+        <v>309.9563782489683</v>
       </c>
       <c r="U20" t="n">
-        <v>524.8061207307293</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="V20" t="n">
-        <v>524.8061207307293</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="W20" t="n">
-        <v>408.0765169075913</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X20" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y20" t="n">
         <v>143.0229205789402</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="C21" t="n">
-        <v>275.5497187432658</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="D21" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664038</v>
       </c>
       <c r="E21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="F21" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="G21" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="H21" t="n">
-        <v>10.49612241461459</v>
+        <v>19.53764737328453</v>
       </c>
       <c r="I21" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K21" t="n">
-        <v>194.1153437088095</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L21" t="n">
-        <v>239.7459972954233</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M21" t="n">
-        <v>245.1112209220098</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="N21" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498739</v>
       </c>
       <c r="O21" t="n">
-        <v>265.0270909690183</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="P21" t="n">
-        <v>394.9166058498738</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="R21" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="S21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="T21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="U21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="V21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="W21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="X21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Y21" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.2257262377527</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C22" t="n">
-        <v>127.2257262377527</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D22" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E22" t="n">
         <v>10.49612241461459</v>
@@ -5913,13 +5913,13 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881296</v>
+        <v>44.60440993881299</v>
       </c>
       <c r="L22" t="n">
-        <v>143.7777095003619</v>
+        <v>143.777709500362</v>
       </c>
       <c r="M22" t="n">
-        <v>258.73117185987</v>
+        <v>258.7311718598701</v>
       </c>
       <c r="N22" t="n">
         <v>376.3859142399439</v>
@@ -5934,28 +5934,28 @@
         <v>524.8061207307294</v>
       </c>
       <c r="R22" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="S22" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="T22" t="n">
+        <v>524.8061207307294</v>
+      </c>
+      <c r="U22" t="n">
         <v>392.2793225664038</v>
       </c>
-      <c r="S22" t="n">
-        <v>259.7525244020783</v>
-      </c>
-      <c r="T22" t="n">
-        <v>259.7525244020783</v>
-      </c>
-      <c r="U22" t="n">
-        <v>259.7525244020783</v>
-      </c>
       <c r="V22" t="n">
-        <v>259.7525244020783</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W22" t="n">
-        <v>127.2257262377527</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X22" t="n">
-        <v>127.2257262377527</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.2257262377527</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1016.583291728289</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="C23" t="n">
-        <v>1016.583291728289</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="D23" t="n">
-        <v>1016.583291728289</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="E23" t="n">
-        <v>1016.583291728289</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="F23" t="n">
-        <v>605.5973869386819</v>
+        <v>794.0417188887668</v>
       </c>
       <c r="G23" t="n">
-        <v>187.199069377168</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H23" t="n">
         <v>43.99876135909523</v>
@@ -5995,13 +5995,13 @@
         <v>363.7015273031528</v>
       </c>
       <c r="L23" t="n">
-        <v>713.8179739365967</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M23" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O23" t="n">
         <v>1848.86027121381</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S23" t="n">
-        <v>2013.859195956</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="T23" t="n">
-        <v>1793.322463768223</v>
+        <v>1931.536251638565</v>
       </c>
       <c r="U23" t="n">
-        <v>1793.322463768223</v>
+        <v>1677.73970551988</v>
       </c>
       <c r="V23" t="n">
-        <v>1793.322463768223</v>
+        <v>1346.67681817631</v>
       </c>
       <c r="W23" t="n">
-        <v>1793.322463768223</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="X23" t="n">
-        <v>1793.322463768223</v>
+        <v>993.9081629061955</v>
       </c>
       <c r="Y23" t="n">
-        <v>1403.183131792411</v>
+        <v>993.9081629061955</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>583.967755576184</v>
+        <v>490.313222136205</v>
       </c>
       <c r="C24" t="n">
-        <v>409.514726295057</v>
+        <v>490.313222136205</v>
       </c>
       <c r="D24" t="n">
-        <v>260.5803166338057</v>
+        <v>341.3788124749537</v>
       </c>
       <c r="E24" t="n">
-        <v>260.5803166338057</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="F24" t="n">
-        <v>114.0457586606907</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="G24" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H24" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I24" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J24" t="n">
-        <v>62.27346334826848</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K24" t="n">
-        <v>62.27346334826848</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L24" t="n">
-        <v>417.4155079642478</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M24" t="n">
-        <v>883.8287447033342</v>
+        <v>1084.007512031093</v>
       </c>
       <c r="N24" t="n">
-        <v>1378.293565350461</v>
+        <v>1578.47233267822</v>
       </c>
       <c r="O24" t="n">
-        <v>1764.216596447708</v>
+        <v>1964.395363775467</v>
       </c>
       <c r="P24" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q24" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R24" t="n">
-        <v>2199.938067954761</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="S24" t="n">
-        <v>2085.184893235385</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T24" t="n">
-        <v>1885.369275493782</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="U24" t="n">
-        <v>1657.184356526683</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V24" t="n">
-        <v>1422.03224829494</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W24" t="n">
-        <v>1167.794891566739</v>
+        <v>1055.409109766408</v>
       </c>
       <c r="X24" t="n">
-        <v>959.9433913612058</v>
+        <v>866.288857921227</v>
       </c>
       <c r="Y24" t="n">
-        <v>752.183092596252</v>
+        <v>658.5285591562731</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>509.9415311972482</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C25" t="n">
-        <v>341.0053482693413</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D25" t="n">
-        <v>190.8887088570056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E25" t="n">
-        <v>190.8887088570056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F25" t="n">
         <v>43.99876135909523</v>
@@ -6150,16 +6150,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K25" t="n">
-        <v>78.1070488832936</v>
+        <v>78.10704888329363</v>
       </c>
       <c r="L25" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M25" t="n">
-        <v>292.2338108043506</v>
+        <v>292.2338108043507</v>
       </c>
       <c r="N25" t="n">
-        <v>409.8885531844245</v>
+        <v>409.8885531844246</v>
       </c>
       <c r="O25" t="n">
         <v>502.545455229807</v>
@@ -6171,28 +6171,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R25" t="n">
-        <v>558.30875967521</v>
+        <v>526.6728004629995</v>
       </c>
       <c r="S25" t="n">
-        <v>558.30875967521</v>
+        <v>526.6728004629995</v>
       </c>
       <c r="T25" t="n">
-        <v>558.30875967521</v>
+        <v>526.6728004629995</v>
       </c>
       <c r="U25" t="n">
-        <v>509.9415311972482</v>
+        <v>526.6728004629995</v>
       </c>
       <c r="V25" t="n">
-        <v>509.9415311972482</v>
+        <v>271.9883122571126</v>
       </c>
       <c r="W25" t="n">
-        <v>509.9415311972482</v>
+        <v>271.9883122571126</v>
       </c>
       <c r="X25" t="n">
-        <v>509.9415311972482</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y25" t="n">
-        <v>509.9415311972482</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1931.536251638565</v>
+        <v>487.6391106996784</v>
       </c>
       <c r="C26" t="n">
-        <v>1931.536251638565</v>
+        <v>487.6391106996784</v>
       </c>
       <c r="D26" t="n">
-        <v>1761.033278226643</v>
+        <v>487.6391106996784</v>
       </c>
       <c r="E26" t="n">
-        <v>1375.245025628399</v>
+        <v>487.6391106996784</v>
       </c>
       <c r="F26" t="n">
-        <v>964.2591208387912</v>
+        <v>487.6391106996784</v>
       </c>
       <c r="G26" t="n">
-        <v>545.8608032772772</v>
+        <v>69.24079313816446</v>
       </c>
       <c r="H26" t="n">
-        <v>214.2161633091196</v>
+        <v>69.24079313816446</v>
       </c>
       <c r="I26" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J26" t="n">
-        <v>123.6220514371461</v>
+        <v>123.6220514371463</v>
       </c>
       <c r="K26" t="n">
-        <v>363.7015273031523</v>
+        <v>363.7015273031525</v>
       </c>
       <c r="L26" t="n">
-        <v>713.817973936596</v>
+        <v>713.8179739365962</v>
       </c>
       <c r="M26" t="n">
-        <v>1119.996526506345</v>
+        <v>1119.996526506346</v>
       </c>
       <c r="N26" t="n">
         <v>1518.115475157463</v>
@@ -6262,16 +6262,16 @@
         <v>1931.536251638565</v>
       </c>
       <c r="V26" t="n">
-        <v>1931.536251638565</v>
+        <v>1600.473364294994</v>
       </c>
       <c r="W26" t="n">
-        <v>1931.536251638565</v>
+        <v>1247.70470902488</v>
       </c>
       <c r="X26" t="n">
-        <v>1931.536251638565</v>
+        <v>874.2389507638002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1931.536251638565</v>
+        <v>874.2389507638002</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>764.4146060951994</v>
+        <v>918.988888254915</v>
       </c>
       <c r="C27" t="n">
-        <v>589.9615768140724</v>
+        <v>744.535858973788</v>
       </c>
       <c r="D27" t="n">
-        <v>441.0271671528211</v>
+        <v>595.6014493125367</v>
       </c>
       <c r="E27" t="n">
-        <v>281.7897121473656</v>
+        <v>436.3639943070813</v>
       </c>
       <c r="F27" t="n">
-        <v>252.1883547710937</v>
+        <v>289.8294363339663</v>
       </c>
       <c r="G27" t="n">
-        <v>114.0457586606907</v>
+        <v>151.6868402235633</v>
       </c>
       <c r="H27" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I27" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J27" t="n">
-        <v>62.27346334826848</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="K27" t="n">
-        <v>62.27346334826848</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="L27" t="n">
-        <v>417.4155079642478</v>
+        <v>452.8705123884139</v>
       </c>
       <c r="M27" t="n">
         <v>883.8287447033342</v>
@@ -6332,25 +6332,25 @@
         <v>2199.938067954761</v>
       </c>
       <c r="S27" t="n">
-        <v>2037.446824787301</v>
+        <v>2052.175071152445</v>
       </c>
       <c r="T27" t="n">
-        <v>1837.631207045698</v>
+        <v>2052.175071152445</v>
       </c>
       <c r="U27" t="n">
-        <v>1837.631207045698</v>
+        <v>1823.990152185346</v>
       </c>
       <c r="V27" t="n">
-        <v>1602.479098813956</v>
+        <v>1588.838043953603</v>
       </c>
       <c r="W27" t="n">
-        <v>1348.241742085754</v>
+        <v>1334.600687225402</v>
       </c>
       <c r="X27" t="n">
-        <v>1140.390241880221</v>
+        <v>1126.749187019869</v>
       </c>
       <c r="Y27" t="n">
-        <v>932.6299431152675</v>
+        <v>918.988888254915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.9349442870021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C28" t="n">
         <v>43.99876135909523</v>
@@ -6405,31 +6405,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q28" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R28" t="n">
-        <v>394.5834091172418</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S28" t="n">
-        <v>394.5834091172418</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T28" t="n">
-        <v>394.5834091172418</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U28" t="n">
-        <v>394.5834091172418</v>
+        <v>558.30875967521</v>
       </c>
       <c r="V28" t="n">
-        <v>394.5834091172418</v>
+        <v>333.4159313960558</v>
       </c>
       <c r="W28" t="n">
-        <v>394.5834091172418</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X28" t="n">
-        <v>394.5834091172418</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.5834091172418</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.3313213375513</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="C29" t="n">
-        <v>781.3313213375513</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="D29" t="n">
-        <v>781.3313213375513</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="E29" t="n">
-        <v>395.5430687393071</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="F29" t="n">
-        <v>395.5430687393071</v>
+        <v>462.3970789206091</v>
       </c>
       <c r="G29" t="n">
-        <v>375.6434013272529</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H29" t="n">
         <v>43.99876135909523</v>
@@ -6463,7 +6463,7 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371465</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K29" t="n">
         <v>363.7015273031528</v>
@@ -6475,7 +6475,7 @@
         <v>1119.996526506346</v>
       </c>
       <c r="N29" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O29" t="n">
         <v>1848.86027121381</v>
@@ -6505,10 +6505,10 @@
         <v>1931.536251638565</v>
       </c>
       <c r="X29" t="n">
-        <v>1558.070493377485</v>
+        <v>1650.12215575015</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.931161401673</v>
+        <v>1259.982823774338</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>960.9714387357974</v>
+        <v>972.1749048601532</v>
       </c>
       <c r="C30" t="n">
-        <v>814.5828562753836</v>
+        <v>797.7218755790262</v>
       </c>
       <c r="D30" t="n">
-        <v>665.6484466141324</v>
+        <v>648.787465917775</v>
       </c>
       <c r="E30" t="n">
-        <v>506.4109916086768</v>
+        <v>489.5500109123195</v>
       </c>
       <c r="F30" t="n">
-        <v>359.8764336355617</v>
+        <v>343.0154529392045</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7338375251587</v>
+        <v>204.8728568288014</v>
       </c>
       <c r="H30" t="n">
-        <v>114.0457586606907</v>
+        <v>97.18477796433342</v>
       </c>
       <c r="I30" t="n">
         <v>43.99876135909523</v>
@@ -6545,49 +6545,49 @@
         <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
-        <v>205.2607465017562</v>
+        <v>316.1819370893671</v>
       </c>
       <c r="L30" t="n">
-        <v>560.4027911177354</v>
+        <v>671.3239817053463</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.816027856822</v>
+        <v>1137.737218444433</v>
       </c>
       <c r="N30" t="n">
-        <v>1521.280848503948</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O30" t="n">
-        <v>1907.203879601196</v>
+        <v>1764.216596447708</v>
       </c>
       <c r="P30" t="n">
-        <v>2199.938067954761</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q30" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R30" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S30" t="n">
-        <v>1972.799111435054</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T30" t="n">
-        <v>1772.983493693451</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="U30" t="n">
-        <v>1544.798574726352</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="V30" t="n">
-        <v>1544.798574726352</v>
+        <v>1602.479098813956</v>
       </c>
       <c r="W30" t="n">
-        <v>1544.798574726352</v>
+        <v>1348.241742085754</v>
       </c>
       <c r="X30" t="n">
-        <v>1336.947074520819</v>
+        <v>1140.390241880221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1129.186775755865</v>
+        <v>1140.390241880221</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="C31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="D31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="E31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="F31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="G31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="H31" t="n">
-        <v>183.713316329947</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I31" t="n">
         <v>43.99876135909523</v>
@@ -6645,28 +6645,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R31" t="n">
-        <v>401.398419270289</v>
+        <v>421.1651282616997</v>
       </c>
       <c r="S31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="T31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="U31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="V31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="W31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="X31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.713316329947</v>
+        <v>203.4800253213578</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>195.8452124802877</v>
+        <v>1473.703654423567</v>
       </c>
       <c r="C32" t="n">
-        <v>195.8452124802877</v>
+        <v>1104.741137483156</v>
       </c>
       <c r="D32" t="n">
-        <v>195.8452124802877</v>
+        <v>746.4754388764052</v>
       </c>
       <c r="E32" t="n">
-        <v>195.8452124802877</v>
+        <v>746.4754388764052</v>
       </c>
       <c r="F32" t="n">
-        <v>195.8452124802877</v>
+        <v>335.4895340867976</v>
       </c>
       <c r="G32" t="n">
-        <v>195.8452124802877</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H32" t="n">
         <v>43.99876135909523</v>
@@ -6700,19 +6700,19 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371461</v>
       </c>
       <c r="K32" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031523</v>
       </c>
       <c r="L32" t="n">
-        <v>713.8179739365964</v>
+        <v>713.817973936596</v>
       </c>
       <c r="M32" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N32" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O32" t="n">
         <v>1848.86027121381</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T32" t="n">
-        <v>1897.078391449548</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="U32" t="n">
-        <v>1643.281845330864</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="V32" t="n">
-        <v>1312.218957987293</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="W32" t="n">
-        <v>959.4503027171793</v>
+        <v>1847.169412684647</v>
       </c>
       <c r="X32" t="n">
-        <v>585.9845444560995</v>
+        <v>1473.703654423567</v>
       </c>
       <c r="Y32" t="n">
-        <v>195.8452124802877</v>
+        <v>1473.703654423567</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>743.2052105816394</v>
+        <v>725.8193305040547</v>
       </c>
       <c r="C33" t="n">
-        <v>568.7521813005125</v>
+        <v>551.3663012229277</v>
       </c>
       <c r="D33" t="n">
-        <v>419.8177716392612</v>
+        <v>402.4318915616765</v>
       </c>
       <c r="E33" t="n">
-        <v>260.5803166338057</v>
+        <v>402.4318915616765</v>
       </c>
       <c r="F33" t="n">
-        <v>114.0457586606907</v>
+        <v>255.8973335885615</v>
       </c>
       <c r="G33" t="n">
-        <v>114.0457586606907</v>
+        <v>117.7547374781584</v>
       </c>
       <c r="H33" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I33" t="n">
         <v>43.99876135909523</v>
@@ -6791,13 +6791,13 @@
         <v>1084.007512031093</v>
       </c>
       <c r="N33" t="n">
-        <v>1378.293565350461</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O33" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P33" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q33" t="n">
         <v>2199.938067954761</v>
@@ -6812,19 +6812,19 @@
         <v>1772.983493693451</v>
       </c>
       <c r="U33" t="n">
-        <v>1772.983493693451</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V33" t="n">
-        <v>1537.831385461709</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W33" t="n">
-        <v>1283.594028733507</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="X33" t="n">
-        <v>1075.742528527974</v>
+        <v>1101.794966289077</v>
       </c>
       <c r="Y33" t="n">
-        <v>911.4205476017075</v>
+        <v>894.0346675241228</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.2431248080097</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C34" t="n">
-        <v>87.2431248080097</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D34" t="n">
         <v>43.99876135909523</v>
@@ -6894,16 +6894,16 @@
         <v>558.30875967521</v>
       </c>
       <c r="V34" t="n">
-        <v>558.30875967521</v>
+        <v>303.6242714693232</v>
       </c>
       <c r="W34" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X34" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y34" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>365.1472789126383</v>
+        <v>661.2698027801457</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1472789126383</v>
+        <v>391.7683375512311</v>
       </c>
       <c r="D35" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E35" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F35" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G35" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H35" t="n">
         <v>33.50263894448064</v>
@@ -6943,13 +6943,13 @@
         <v>113.125929022532</v>
       </c>
       <c r="L35" t="n">
-        <v>189.0118532058671</v>
+        <v>463.2423756559756</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1904057756165</v>
+        <v>869.420928225725</v>
       </c>
       <c r="N35" t="n">
-        <v>993.3093544267341</v>
+        <v>1267.539876876843</v>
       </c>
       <c r="O35" t="n">
         <v>1324.054150483081</v>
@@ -6967,22 +6967,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T35" t="n">
-        <v>1481.521024419644</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="U35" t="n">
-        <v>1481.521024419644</v>
+        <v>1421.335401105347</v>
       </c>
       <c r="V35" t="n">
-        <v>1481.521024419644</v>
+        <v>1421.335401105347</v>
       </c>
       <c r="W35" t="n">
-        <v>1128.75236914953</v>
+        <v>1421.335401105347</v>
       </c>
       <c r="X35" t="n">
-        <v>755.28661088845</v>
+        <v>1047.869642844267</v>
       </c>
       <c r="Y35" t="n">
-        <v>365.1472789126383</v>
+        <v>1047.869642844267</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>721.9172746161765</v>
+        <v>562.2032697572129</v>
       </c>
       <c r="C36" t="n">
-        <v>547.4642453350496</v>
+        <v>387.7502404760859</v>
       </c>
       <c r="D36" t="n">
-        <v>547.4642453350496</v>
+        <v>238.8158308148346</v>
       </c>
       <c r="E36" t="n">
-        <v>388.2267903295941</v>
+        <v>238.8158308148346</v>
       </c>
       <c r="F36" t="n">
-        <v>241.6922323564791</v>
+        <v>238.8158308148346</v>
       </c>
       <c r="G36" t="n">
-        <v>103.5496362460761</v>
+        <v>100.6732347044316</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5496362460761</v>
+        <v>100.6732347044316</v>
       </c>
       <c r="I36" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J36" t="n">
-        <v>87.23234535782009</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K36" t="n">
-        <v>305.6858146747525</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L36" t="n">
-        <v>660.8278592907318</v>
+        <v>388.6446835604599</v>
       </c>
       <c r="M36" t="n">
-        <v>833.5715745727233</v>
+        <v>803.2398404984078</v>
       </c>
       <c r="N36" t="n">
-        <v>853.4874446197318</v>
+        <v>1217.834997436356</v>
       </c>
       <c r="O36" t="n">
-        <v>1239.410475716979</v>
+        <v>1532.144664070544</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.144664070545</v>
+        <v>1532.144664070544</v>
       </c>
       <c r="Q36" t="n">
         <v>1675.131947224032</v>
@@ -7043,25 +7043,25 @@
         <v>1610.484233871785</v>
       </c>
       <c r="S36" t="n">
-        <v>1559.981767334933</v>
+        <v>1447.992990704324</v>
       </c>
       <c r="T36" t="n">
-        <v>1559.981767334933</v>
+        <v>1447.992990704324</v>
       </c>
       <c r="U36" t="n">
-        <v>1559.981767334933</v>
+        <v>1219.808071737225</v>
       </c>
       <c r="V36" t="n">
-        <v>1559.981767334933</v>
+        <v>984.6559635054825</v>
       </c>
       <c r="W36" t="n">
-        <v>1305.744410606731</v>
+        <v>730.418606777281</v>
       </c>
       <c r="X36" t="n">
-        <v>1097.892910401198</v>
+        <v>730.418606777281</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.1326116362445</v>
+        <v>730.418606777281</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
@@ -7119,22 +7119,22 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R37" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S37" t="n">
-        <v>173.2171939153324</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T37" t="n">
-        <v>173.2171939153324</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U37" t="n">
-        <v>173.2171939153324</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V37" t="n">
-        <v>173.2171939153324</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W37" t="n">
-        <v>33.50263894448064</v>
+        <v>261.492189842498</v>
       </c>
       <c r="X37" t="n">
         <v>33.50263894448064</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1557.505011879495</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="C38" t="n">
-        <v>1188.542494939083</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="D38" t="n">
-        <v>830.2767963323324</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="E38" t="n">
-        <v>444.4885437340882</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="F38" t="n">
-        <v>33.50263894448064</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G38" t="n">
         <v>33.50263894448064</v>
@@ -7177,13 +7177,13 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K38" t="n">
-        <v>189.9732033133744</v>
+        <v>273.5821148104869</v>
       </c>
       <c r="L38" t="n">
-        <v>540.0896499468181</v>
+        <v>623.6985614439305</v>
       </c>
       <c r="M38" t="n">
-        <v>946.2682025165675</v>
+        <v>1029.87711401368</v>
       </c>
       <c r="N38" t="n">
         <v>1344.387151167685</v>
@@ -7204,22 +7204,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T38" t="n">
-        <v>1675.131947224032</v>
+        <v>1454.595215036255</v>
       </c>
       <c r="U38" t="n">
-        <v>1675.131947224032</v>
+        <v>1200.79866891757</v>
       </c>
       <c r="V38" t="n">
-        <v>1675.131947224032</v>
+        <v>869.7357815739994</v>
       </c>
       <c r="W38" t="n">
-        <v>1675.131947224032</v>
+        <v>516.9671263038852</v>
       </c>
       <c r="X38" t="n">
-        <v>1675.131947224032</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.131947224032</v>
+        <v>451.9009565059945</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>596.3675033131012</v>
+        <v>705.4829699413538</v>
       </c>
       <c r="C39" t="n">
-        <v>421.9144740319742</v>
+        <v>705.4829699413538</v>
       </c>
       <c r="D39" t="n">
-        <v>272.980064370723</v>
+        <v>655.1523241995176</v>
       </c>
       <c r="E39" t="n">
-        <v>113.7426093652675</v>
+        <v>495.9148691940621</v>
       </c>
       <c r="F39" t="n">
-        <v>33.50263894448064</v>
+        <v>349.3803112209471</v>
       </c>
       <c r="G39" t="n">
-        <v>33.50263894448064</v>
+        <v>211.2377151105441</v>
       </c>
       <c r="H39" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I39" t="n">
         <v>33.50263894448064</v>
@@ -7262,13 +7262,13 @@
         <v>660.8278592907318</v>
       </c>
       <c r="M39" t="n">
-        <v>976.5588577262107</v>
+        <v>874.6137591888364</v>
       </c>
       <c r="N39" t="n">
-        <v>996.4747277732192</v>
+        <v>1289.208916126784</v>
       </c>
       <c r="O39" t="n">
-        <v>1382.397758870467</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P39" t="n">
         <v>1675.131947224032</v>
@@ -7277,28 +7277,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R39" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="S39" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="T39" t="n">
-        <v>1475.31632948243</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="U39" t="n">
-        <v>1247.131410515331</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="V39" t="n">
-        <v>1011.979302283588</v>
+        <v>1375.332125640042</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.979302283588</v>
+        <v>1121.09476891184</v>
       </c>
       <c r="X39" t="n">
-        <v>804.1278020780551</v>
+        <v>913.2432687063076</v>
       </c>
       <c r="Y39" t="n">
-        <v>596.3675033131012</v>
+        <v>705.4829699413538</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I40" t="n">
         <v>33.50263894448064</v>
@@ -7335,7 +7335,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7356,28 +7356,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R40" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S40" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T40" t="n">
-        <v>390.9022968556744</v>
+        <v>322.6868805254636</v>
       </c>
       <c r="U40" t="n">
-        <v>390.9022968556744</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="V40" t="n">
-        <v>390.9022968556744</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="W40" t="n">
-        <v>390.9022968556744</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="X40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.6929043795484</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391.7683375512311</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="C41" t="n">
-        <v>391.7683375512311</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="D41" t="n">
-        <v>33.50263894448064</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="E41" t="n">
-        <v>33.50263894448064</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="F41" t="n">
-        <v>33.50263894448064</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G41" t="n">
         <v>33.50263894448064</v>
@@ -7411,52 +7411,52 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J41" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K41" t="n">
-        <v>273.5821148104869</v>
+        <v>113.125929022532</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1904057756165</v>
+        <v>463.2423756559756</v>
       </c>
       <c r="M41" t="n">
-        <v>595.1904057756165</v>
+        <v>869.420928225725</v>
       </c>
       <c r="N41" t="n">
-        <v>993.3093544267341</v>
+        <v>1099.778502692426</v>
       </c>
       <c r="O41" t="n">
-        <v>1324.054150483081</v>
+        <v>1430.523298748773</v>
       </c>
       <c r="P41" t="n">
-        <v>1568.66279895834</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q41" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R41" t="n">
-        <v>1592.809002906597</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S41" t="n">
-        <v>1406.730130907835</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="T41" t="n">
-        <v>1186.193398720058</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="U41" t="n">
-        <v>1118.002751082425</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="V41" t="n">
-        <v>1118.002751082425</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="W41" t="n">
-        <v>765.234095812311</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="X41" t="n">
-        <v>391.7683375512311</v>
+        <v>1639.626033335536</v>
       </c>
       <c r="Y41" t="n">
-        <v>391.7683375512311</v>
+        <v>1249.486701359724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.2518367636733</v>
+        <v>664.3502369721671</v>
       </c>
       <c r="C42" t="n">
-        <v>462.7988074825463</v>
+        <v>489.8972076910401</v>
       </c>
       <c r="D42" t="n">
-        <v>313.864397821295</v>
+        <v>489.8972076910401</v>
       </c>
       <c r="E42" t="n">
-        <v>154.6269428158395</v>
+        <v>425.8678718924667</v>
       </c>
       <c r="F42" t="n">
-        <v>154.6269428158395</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="G42" t="n">
-        <v>154.6269428158395</v>
+        <v>141.1907178089486</v>
       </c>
       <c r="H42" t="n">
-        <v>46.9388639513715</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I42" t="n">
         <v>33.50263894448064</v>
@@ -7493,49 +7493,49 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K42" t="n">
-        <v>33.50263894448064</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="L42" t="n">
-        <v>388.6446835604599</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="M42" t="n">
-        <v>803.2398404984078</v>
+        <v>666.551265199361</v>
       </c>
       <c r="N42" t="n">
-        <v>853.4874446197318</v>
+        <v>1081.146422137309</v>
       </c>
       <c r="O42" t="n">
-        <v>1239.410475716979</v>
+        <v>1467.069453234556</v>
       </c>
       <c r="P42" t="n">
-        <v>1532.144664070545</v>
+        <v>1532.144664070544</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R42" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.131947224032</v>
+        <v>1447.992990704324</v>
       </c>
       <c r="T42" t="n">
-        <v>1475.31632948243</v>
+        <v>1248.177372962722</v>
       </c>
       <c r="U42" t="n">
-        <v>1475.31632948243</v>
+        <v>1248.177372962722</v>
       </c>
       <c r="V42" t="n">
-        <v>1475.31632948243</v>
+        <v>1248.177372962722</v>
       </c>
       <c r="W42" t="n">
-        <v>1221.078972754228</v>
+        <v>1248.177372962722</v>
       </c>
       <c r="X42" t="n">
-        <v>1013.227472548695</v>
+        <v>1040.325872757189</v>
       </c>
       <c r="Y42" t="n">
-        <v>805.4671737837414</v>
+        <v>832.5655739922352</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="C43" t="n">
-        <v>33.50263894448064</v>
+        <v>378.8764543326886</v>
       </c>
       <c r="D43" t="n">
-        <v>33.50263894448064</v>
+        <v>228.7598149203529</v>
       </c>
       <c r="E43" t="n">
-        <v>33.50263894448064</v>
+        <v>228.7598149203529</v>
       </c>
       <c r="F43" t="n">
-        <v>33.50263894448064</v>
+        <v>81.8698674224425</v>
       </c>
       <c r="G43" t="n">
         <v>33.50263894448064</v>
@@ -7572,7 +7572,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7593,28 +7593,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R43" t="n">
-        <v>479.3287093343728</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S43" t="n">
-        <v>261.6436063940308</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="X43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.50263894448064</v>
+        <v>547.8126372605955</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G44" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H44" t="n">
         <v>33.50263894448064</v>
@@ -7651,13 +7651,13 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K44" t="n">
-        <v>33.50263894448064</v>
+        <v>273.5821148104869</v>
       </c>
       <c r="L44" t="n">
-        <v>383.6190855779243</v>
+        <v>295.481001471559</v>
       </c>
       <c r="M44" t="n">
-        <v>789.7976381476738</v>
+        <v>701.6595540413084</v>
       </c>
       <c r="N44" t="n">
         <v>1099.778502692426</v>
@@ -7672,28 +7672,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R44" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906596</v>
       </c>
       <c r="S44" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="T44" t="n">
-        <v>1675.131947224032</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="U44" t="n">
-        <v>1467.377139087837</v>
+        <v>932.3968526013736</v>
       </c>
       <c r="V44" t="n">
-        <v>1136.314251744266</v>
+        <v>793.5682372696823</v>
       </c>
       <c r="W44" t="n">
-        <v>783.5455964741523</v>
+        <v>793.5682372696823</v>
       </c>
       <c r="X44" t="n">
-        <v>783.5455964741523</v>
+        <v>420.1024790086024</v>
       </c>
       <c r="Y44" t="n">
-        <v>783.5455964741523</v>
+        <v>420.1024790086024</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>662.6620908654295</v>
+        <v>573.4716331615693</v>
       </c>
       <c r="C45" t="n">
-        <v>488.2090615843024</v>
+        <v>399.0186038804424</v>
       </c>
       <c r="D45" t="n">
-        <v>339.2746519230512</v>
+        <v>250.0841942191911</v>
       </c>
       <c r="E45" t="n">
-        <v>180.0371969175957</v>
+        <v>250.0841942191911</v>
       </c>
       <c r="F45" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="G45" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="H45" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I45" t="n">
         <v>33.50263894448064</v>
@@ -7736,13 +7736,13 @@
         <v>660.8278592907318</v>
       </c>
       <c r="M45" t="n">
-        <v>666.1930829173184</v>
+        <v>1075.42301622868</v>
       </c>
       <c r="N45" t="n">
-        <v>1080.788239855266</v>
+        <v>1289.208916126784</v>
       </c>
       <c r="O45" t="n">
-        <v>1466.711270952514</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P45" t="n">
         <v>1675.131947224032</v>
@@ -7754,25 +7754,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S45" t="n">
-        <v>1513.115321322401</v>
+        <v>1512.640704056571</v>
       </c>
       <c r="T45" t="n">
-        <v>1313.299703580798</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="U45" t="n">
-        <v>1085.114784613699</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="V45" t="n">
-        <v>1085.114784613699</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="W45" t="n">
-        <v>830.8774278854976</v>
+        <v>1058.587729586767</v>
       </c>
       <c r="X45" t="n">
-        <v>830.8774278854976</v>
+        <v>949.4472689465913</v>
       </c>
       <c r="Y45" t="n">
-        <v>830.8774278854976</v>
+        <v>741.6869701816374</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.5872926891579</v>
+        <v>319.8230863625781</v>
       </c>
       <c r="C46" t="n">
-        <v>349.5872926891579</v>
+        <v>150.8869034346712</v>
       </c>
       <c r="D46" t="n">
-        <v>349.5872926891579</v>
+        <v>150.8869034346712</v>
       </c>
       <c r="E46" t="n">
-        <v>349.5872926891579</v>
+        <v>150.8869034346712</v>
       </c>
       <c r="F46" t="n">
-        <v>202.6973451912476</v>
+        <v>150.8869034346712</v>
       </c>
       <c r="G46" t="n">
         <v>33.50263894448064</v>
@@ -7809,7 +7809,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
@@ -7848,10 +7848,10 @@
         <v>547.8126372605955</v>
       </c>
       <c r="X46" t="n">
-        <v>531.2357575193977</v>
+        <v>319.8230863625781</v>
       </c>
       <c r="Y46" t="n">
-        <v>531.2357575193977</v>
+        <v>319.8230863625781</v>
       </c>
     </row>
   </sheetData>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66904943666837</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K11" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L11" t="n">
-        <v>189.908696409142</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M11" t="n">
-        <v>39.23216726076242</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N11" t="n">
-        <v>166.4081024218204</v>
+        <v>166.4081024218203</v>
       </c>
       <c r="O11" t="n">
-        <v>46.7145286805771</v>
+        <v>172.6149869366864</v>
       </c>
       <c r="P11" t="n">
-        <v>205.920795449863</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q11" t="n">
         <v>104.7703964521349</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>50.13264502356412</v>
+        <v>50.13264502356397</v>
       </c>
       <c r="P12" t="n">
-        <v>22.77166929290145</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.8472187735947</v>
+        <v>196.8472187735946</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,19 +8932,19 @@
         <v>212.8424216770731</v>
       </c>
       <c r="L14" t="n">
-        <v>133.1380666486491</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M14" t="n">
-        <v>39.23216726076242</v>
+        <v>39.23216726076237</v>
       </c>
       <c r="N14" t="n">
-        <v>35.20657223913801</v>
+        <v>104.3364007347544</v>
       </c>
       <c r="O14" t="n">
-        <v>46.7145286805771</v>
+        <v>46.71452868057705</v>
       </c>
       <c r="P14" t="n">
-        <v>205.920795449863</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K15" t="n">
-        <v>144.1691669954279</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L15" t="n">
         <v>143.3125374902029</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>125.7821123780494</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>105.7834178045856</v>
       </c>
       <c r="O15" t="n">
-        <v>135.2426059268385</v>
+        <v>135.2426059268386</v>
       </c>
       <c r="P15" t="n">
-        <v>22.77166929290145</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.8472187735947</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>127.1137840150948</v>
+        <v>212.8424216770731</v>
       </c>
       <c r="L17" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303261</v>
       </c>
       <c r="M17" t="n">
-        <v>170.4336974434447</v>
+        <v>39.23216726076237</v>
       </c>
       <c r="N17" t="n">
-        <v>35.20657223913801</v>
+        <v>166.4081024218203</v>
       </c>
       <c r="O17" t="n">
-        <v>46.7145286805771</v>
+        <v>46.71452868057705</v>
       </c>
       <c r="P17" t="n">
-        <v>205.920795449863</v>
+        <v>143.8490937627971</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9257,13 +9257,13 @@
         <v>111.0844897311586</v>
       </c>
       <c r="O18" t="n">
-        <v>4.041075744156245</v>
+        <v>4.041075744156217</v>
       </c>
       <c r="P18" t="n">
-        <v>153.9731994755837</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.64568859091233</v>
+        <v>196.8472187735946</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>88.66904943666837</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K20" t="n">
-        <v>207.5413497505002</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L20" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303261</v>
       </c>
       <c r="M20" t="n">
-        <v>170.4336974434447</v>
+        <v>57.58803130910191</v>
       </c>
       <c r="N20" t="n">
-        <v>166.4081024218204</v>
+        <v>166.4081024218203</v>
       </c>
       <c r="O20" t="n">
-        <v>46.7145286805771</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P20" t="n">
-        <v>74.71926526718062</v>
+        <v>205.9207954498629</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K21" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L21" t="n">
-        <v>58.20257658692839</v>
+        <v>143.3125374902029</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>125.7821123780494</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>105.7834178045856</v>
       </c>
       <c r="O21" t="n">
-        <v>4.041075744156245</v>
+        <v>135.2426059268386</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755837</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.8472187735947</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>90.27789955842279</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K24" t="n">
-        <v>43.80516699547518</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>260.6935927063296</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>90.27789955842279</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>43.80516699547515</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>429.8919279680139</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>152.4236303584262</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>277.1415992650091</v>
+        <v>421.573198409946</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>81.64089149439079</v>
       </c>
       <c r="L35" t="n">
-        <v>140.660686823068</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>103.7996535353627</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>169.069183490308</v>
+        <v>413.363569001375</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>398.6659463544842</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>321.525587495862</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>88.66904943666836</v>
       </c>
       <c r="K38" t="n">
-        <v>239.6919666144855</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>352.8934784553048</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>313.5007826352448</v>
+        <v>210.525935627796</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>398.6659463544842</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q39" t="n">
         <v>65.64568859091231</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L41" t="n">
-        <v>388.8650977137696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>39.23216726076237</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>267.8909908923715</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,22 +11141,22 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K42" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>12.11100730752052</v>
       </c>
       <c r="M42" t="n">
-        <v>413.3635690013751</v>
+        <v>413.363569001375</v>
       </c>
       <c r="N42" t="n">
-        <v>30.63811522658129</v>
+        <v>398.6659463544842</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>88.50420549086904</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,16 +11299,16 @@
         <v>88.66904943666836</v>
       </c>
       <c r="K44" t="n">
-        <v>81.64089149439079</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>86.12832568946911</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>348.3185566277767</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>413.363569001375</v>
       </c>
       <c r="N45" t="n">
-        <v>398.6659463544843</v>
+        <v>195.8283129809051</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>233.2976049206976</v>
+        <v>22.77166929290142</v>
       </c>
       <c r="Q45" t="n">
         <v>65.64568859091231</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>372.813452831066</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H11" t="n">
-        <v>197.1266633857938</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I11" t="n">
-        <v>37.31369774784181</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>184.2180832787735</v>
+        <v>53.0165530960912</v>
       </c>
       <c r="T11" t="n">
         <v>218.3313648658995</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>315.1783758067675</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.0364084733713</v>
+        <v>255.0364084733712</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>57.14619120340912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>16.24353538195643</v>
+        <v>31.88275777973216</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.86768221070153</v>
       </c>
       <c r="G12" t="n">
         <v>136.761170149299</v>
@@ -23396,7 +23396,7 @@
         <v>225.903069777428</v>
       </c>
       <c r="V12" t="n">
-        <v>101.5990569667429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>120.4934529782373</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462201</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.63044999925498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>36.04529091594549</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,7 +23439,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J13" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S13" t="n">
-        <v>99.94594412603199</v>
+        <v>84.30672172825621</v>
       </c>
       <c r="T13" t="n">
-        <v>94.65802759237235</v>
+        <v>110.297249990148</v>
       </c>
       <c r="U13" t="n">
         <v>286.2923991651731</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>94.50812520635483</v>
+        <v>94.5081252063548</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>347.8677771616163</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1266633857938</v>
+        <v>197.1266633857937</v>
       </c>
       <c r="I14" t="n">
         <v>168.5152279305241</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>53.01655309609123</v>
+        <v>53.0165530960912</v>
       </c>
       <c r="T14" t="n">
-        <v>87.12983468321721</v>
+        <v>184.268771955254</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748152</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718499</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>26.4435502727186</v>
       </c>
       <c r="F15" t="n">
-        <v>29.50690460847727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.761170149299</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.66480055310345</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T15" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
-        <v>94.70153959474567</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>181.2395155832432</v>
       </c>
       <c r="W15" t="n">
-        <v>120.4934529782373</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462201</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J16" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
-        <v>24.13970681818947</v>
+        <v>39.77892921596516</v>
       </c>
       <c r="S16" t="n">
-        <v>84.30672172825624</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T16" t="n">
-        <v>94.65802759237235</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824907</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>120.9361131411457</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X16" t="n">
-        <v>110.1473476041305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>223.4815114380006</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>347.8677771616163</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H17" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I17" t="n">
-        <v>37.31369774784181</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>184.2180832787735</v>
+        <v>150.155490368128</v>
       </c>
       <c r="T17" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748152</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>196.5507282874526</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>218.0394385347307</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718499</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>57.14619120340916</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>127.8100604402157</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I18" t="n">
         <v>69.34652732857948</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>74.57145502079516</v>
+        <v>74.57145502079513</v>
       </c>
       <c r="Y18" t="n">
-        <v>74.48116559462204</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.63044999925498</v>
+        <v>64.26967239703067</v>
       </c>
       <c r="C19" t="n">
-        <v>51.68451331372123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>17.41394283553001</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,13 +23907,13 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H19" t="n">
-        <v>157.8864513226399</v>
+        <v>26.68492113995757</v>
       </c>
       <c r="I19" t="n">
-        <v>140.7683627807171</v>
+        <v>9.566832598034722</v>
       </c>
       <c r="J19" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R19" t="n">
-        <v>24.13970681818947</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S19" t="n">
-        <v>84.30672172825624</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T19" t="n">
         <v>225.8595577750547</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.5323114807983</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H20" t="n">
         <v>328.3281935684761</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321718</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748152</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>233.6786609325064</v>
+        <v>315.1783758067675</v>
       </c>
       <c r="X20" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.0364084733713</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>41.50696880563342</v>
+        <v>41.50696880563339</v>
       </c>
       <c r="D21" t="n">
-        <v>16.24353538195643</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>26.4435502727186</v>
       </c>
       <c r="F21" t="n">
-        <v>13.86768221070156</v>
+        <v>13.86768221070153</v>
       </c>
       <c r="G21" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H21" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>69.34652732857948</v>
+        <v>60.39541761949624</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S21" t="n">
-        <v>45.3040229508792</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T21" t="n">
         <v>197.8174615641865</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>33.05316523330563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>30.87165486166259</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J22" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R22" t="n">
-        <v>24.13970681818947</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S22" t="n">
-        <v>84.30672172825624</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T22" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824907</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>120.9361131411457</v>
       </c>
       <c r="W22" t="n">
-        <v>155.3214681539087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>94.5081252063548</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>209.0082661644571</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>186.5598886305841</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>168.5152279305241</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>47.26068776360293</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>18.54393587674832</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.5027591842993</v>
@@ -24387,7 +24387,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J25" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R25" t="n">
-        <v>155.3412370008718</v>
+        <v>124.0216373807834</v>
       </c>
       <c r="S25" t="n">
         <v>215.5082519109386</v>
@@ -24420,16 +24420,16 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U25" t="n">
-        <v>238.4088429719909</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>185.8850979428805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>143.5256164692456</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>251.2585806574976</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>115.7638685908747</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>14.58096390149279</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R28" t="n">
-        <v>38.53340116215142</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S28" t="n">
         <v>215.5082519109386</v>
@@ -24660,10 +24660,10 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>29.49374332746538</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>394.5136636479651</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
         <v>168.5152279305241</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>91.13114574893865</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.78380235250611</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.69237088939367</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24855,10 +24855,10 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H31" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.450953359573845</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J31" t="n">
         <v>58.84201380359813</v>
@@ -24885,7 +24885,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>19.56904190149663</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2143343858988</v>
+        <v>125.6384693854735</v>
       </c>
       <c r="H32" t="n">
-        <v>178.0002069584955</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I32" t="n">
         <v>168.5152279305241</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S32" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25004,19 +25004,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>106.6111980758233</v>
+        <v>33.59278171795077</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.00393466030042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>105.803553203787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25134,10 +25134,10 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>29.49374332746538</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>98.46644119438213</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I35" t="n">
         <v>168.5152279305241</v>
@@ -25207,22 +25207,22 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>26.65655128955532</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.847637526228041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>110.8688888643022</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U36" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,10 +25359,10 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T37" t="n">
         <v>225.8595577750547</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>148.2055889154477</v>
+        <v>3.065755392674475</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.2831756723884</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>328.3281935684761</v>
@@ -25444,19 +25444,19 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>305.3155925785574</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>97.61772628022095</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>65.63164167680493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
         <v>58.84201380359813</v>
@@ -25596,16 +25596,16 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8595577750547</v>
+        <v>2.985058607274084</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>12.65235683767239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>328.3281935684761</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>149.0672285291623</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
-        <v>183.749839496241</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>94.25603801481333</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>56.04466457175754</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5027591842993</v>
+        <v>119.619202991117</v>
       </c>
       <c r="H43" t="n">
         <v>157.8864513226399</v>
@@ -25833,13 +25833,13 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R43" t="n">
-        <v>87.54214835391133</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U43" t="n">
         <v>286.2923991651731</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.58132060266439</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>190.3119292917606</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4698710931706671</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>97.72392916970313</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>51.29233733901063</v>
       </c>
       <c r="H46" t="n">
         <v>157.8864513226399</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>209.2985444452513</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364939.9196215646</v>
+        <v>364939.9196215647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364939.9196215647</v>
+        <v>364939.9196215648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364939.9196215647</v>
+        <v>364939.9196215646</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639079.0800551542</v>
+        <v>639079.0800551543</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>553193.3624757439</v>
+        <v>553193.3624757436</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553193.3624757439</v>
+        <v>553193.3624757436</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>553193.3624757439</v>
+        <v>553193.3624757436</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>553193.3624757441</v>
+        <v>553193.3624757438</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377789</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377789</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377788</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614457.2540377788</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
         <v>232585.0077031983</v>
@@ -26328,34 +26328,34 @@
         <v>232585.0077031984</v>
       </c>
       <c r="G2" t="n">
-        <v>232585.0077031983</v>
+        <v>232585.0077031984</v>
       </c>
       <c r="H2" t="n">
         <v>232585.0077031983</v>
       </c>
       <c r="I2" t="n">
+        <v>381291.9985937017</v>
+      </c>
+      <c r="J2" t="n">
+        <v>381291.9985937015</v>
+      </c>
+      <c r="K2" t="n">
         <v>381291.9985937016</v>
       </c>
-      <c r="J2" t="n">
-        <v>381291.9985937016</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>381291.9985937017</v>
-      </c>
-      <c r="L2" t="n">
-        <v>381291.9985937016</v>
       </c>
       <c r="M2" t="n">
         <v>334703.2273962363</v>
       </c>
       <c r="N2" t="n">
-        <v>334703.2273962362</v>
+        <v>334703.2273962363</v>
       </c>
       <c r="O2" t="n">
+        <v>334703.2273962364</v>
+      </c>
+      <c r="P2" t="n">
         <v>334703.2273962363</v>
-      </c>
-      <c r="P2" t="n">
-        <v>334703.2273962362</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256687.4423642918</v>
+        <v>256687.4423642919</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>54940.34762298817</v>
+        <v>54940.34762298815</v>
       </c>
       <c r="F4" t="n">
         <v>54940.34762298816</v>
       </c>
       <c r="G4" t="n">
-        <v>54940.34762298816</v>
+        <v>54940.34762298815</v>
       </c>
       <c r="H4" t="n">
         <v>54940.34762298816</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13879.19110417313</v>
+        <v>13879.19110417314</v>
       </c>
       <c r="F5" t="n">
-        <v>13879.19110417313</v>
+        <v>13879.19110417314</v>
       </c>
       <c r="G5" t="n">
-        <v>13879.19110417313</v>
+        <v>13879.19110417314</v>
       </c>
       <c r="H5" t="n">
-        <v>13879.19110417313</v>
+        <v>13879.19110417314</v>
       </c>
       <c r="I5" t="n">
         <v>39341.19670197842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155262.3790929942</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="C6" t="n">
-        <v>155262.3790929941</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="D6" t="n">
-        <v>155262.379092994</v>
+        <v>155302.1012938072</v>
       </c>
       <c r="E6" t="n">
-        <v>-105695.1840447554</v>
+        <v>-94199.29445390496</v>
       </c>
       <c r="F6" t="n">
-        <v>150992.2583195366</v>
+        <v>162488.147910387</v>
       </c>
       <c r="G6" t="n">
-        <v>150992.2583195365</v>
+        <v>162488.147910387</v>
       </c>
       <c r="H6" t="n">
-        <v>150992.2583195365</v>
+        <v>162488.147910387</v>
       </c>
       <c r="I6" t="n">
-        <v>91664.32740424057</v>
+        <v>98699.00726837598</v>
       </c>
       <c r="J6" t="n">
-        <v>203027.5180386811</v>
+        <v>210062.1979028162</v>
       </c>
       <c r="K6" t="n">
-        <v>203027.5180386811</v>
+        <v>210062.1979028163</v>
       </c>
       <c r="L6" t="n">
-        <v>203027.518038681</v>
+        <v>210062.1979028164</v>
       </c>
       <c r="M6" t="n">
-        <v>186725.2662431286</v>
+        <v>195157.6092431879</v>
       </c>
       <c r="N6" t="n">
-        <v>186725.2662431284</v>
+        <v>195157.6092431879</v>
       </c>
       <c r="O6" t="n">
-        <v>186725.2662431286</v>
+        <v>195157.6092431881</v>
       </c>
       <c r="P6" t="n">
-        <v>186725.2662431285</v>
+        <v>195157.6092431879</v>
       </c>
     </row>
   </sheetData>
@@ -31761,40 +31761,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J11" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K11" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L11" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M11" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N11" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O11" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P11" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q11" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R11" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S11" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T11" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H12" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I12" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J12" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K12" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L12" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M12" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N12" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O12" t="n">
         <v>138.5551687002882</v>
@@ -31861,10 +31861,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R12" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S12" t="n">
         <v>10.81684036805206</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H13" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I13" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J13" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K13" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L13" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M13" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N13" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O13" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P13" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R13" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S13" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T13" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J14" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K14" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L14" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M14" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N14" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O14" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P14" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q14" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R14" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S14" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T14" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H15" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I15" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J15" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K15" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L15" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M15" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N15" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O15" t="n">
         <v>138.5551687002882</v>
@@ -32098,10 +32098,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R15" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S15" t="n">
         <v>10.81684036805206</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H16" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I16" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J16" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K16" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L16" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M16" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N16" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O16" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P16" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R16" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S16" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T16" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J17" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K17" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L17" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M17" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N17" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O17" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P17" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q17" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R17" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S17" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T17" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H18" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I18" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J18" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K18" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L18" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M18" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N18" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O18" t="n">
         <v>138.5551687002882</v>
@@ -32335,10 +32335,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R18" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S18" t="n">
         <v>10.81684036805206</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H19" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I19" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J19" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K19" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L19" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M19" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N19" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O19" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P19" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R19" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S19" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T19" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J20" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K20" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L20" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M20" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N20" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O20" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P20" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q20" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R20" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S20" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T20" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H21" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I21" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J21" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K21" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L21" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M21" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N21" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O21" t="n">
         <v>138.5551687002882</v>
@@ -32572,10 +32572,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R21" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S21" t="n">
         <v>10.81684036805206</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H22" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I22" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J22" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K22" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L22" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M22" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N22" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O22" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P22" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R22" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S22" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T22" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,40 +32709,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J23" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K23" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L23" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M23" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N23" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O23" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P23" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q23" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R23" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S23" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T23" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H24" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I24" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J24" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K24" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L24" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M24" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N24" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O24" t="n">
         <v>138.5551687002882</v>
@@ -32809,10 +32809,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R24" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S24" t="n">
         <v>10.81684036805206</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H25" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I25" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J25" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K25" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L25" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M25" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N25" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O25" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P25" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R25" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S25" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T25" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L11" t="n">
-        <v>125.9004582561093</v>
-      </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N11" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="P11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.27243072054489</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K12" t="n">
         <v>131.2015301826823</v>
@@ -35497,13 +35497,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="M12" t="n">
-        <v>5.419417804632872</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N12" t="n">
-        <v>20.11704045152374</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O12" t="n">
-        <v>46.09156927940787</v>
+        <v>46.09156927940775</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35582,10 +35582,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O13" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P13" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="L14" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>69.12982849561647</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.5445942077697</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3639999999527</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M15" t="n">
-        <v>5.419417804632872</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N15" t="n">
-        <v>20.11704045152374</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="O15" t="n">
         <v>131.2015301826823</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100845</v>
       </c>
       <c r="L16" t="n">
         <v>100.1750500621707</v>
@@ -35819,10 +35819,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O16" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P16" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K17" t="n">
-        <v>45.47289252070394</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M17" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>131.2015301826823</v>
+        <v>69.12982849561647</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="L18" t="n">
-        <v>120.4810404514765</v>
+        <v>120.4810404514764</v>
       </c>
       <c r="M18" t="n">
-        <v>5.419417804632872</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N18" t="n">
         <v>131.2015301826823</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L19" t="n">
         <v>100.1750500621707</v>
@@ -36056,10 +36056,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O19" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P19" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>125.9004582561093</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>131.2015301826823</v>
+        <v>18.35586404833954</v>
       </c>
       <c r="N20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L21" t="n">
-        <v>46.09156927940784</v>
-      </c>
       <c r="M21" t="n">
-        <v>5.419417804632872</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N21" t="n">
-        <v>20.11704045152374</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L22" t="n">
         <v>100.1750500621707</v>
@@ -36293,10 +36293,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O22" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P22" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5045210767739</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L23" t="n">
         <v>353.6529763974178</v>
       </c>
       <c r="M23" t="n">
-        <v>410.2813662320701</v>
+        <v>410.2813662320697</v>
       </c>
       <c r="N23" t="n">
         <v>402.1403521728462</v>
       </c>
       <c r="O23" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P23" t="n">
-        <v>247.079442904302</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.5445942077697</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.45929493855884</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L24" t="n">
         <v>358.7293379959386</v>
@@ -36448,16 +36448,16 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N24" t="n">
-        <v>499.4594147950772</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O24" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P24" t="n">
-        <v>295.6910993470357</v>
+        <v>237.9219234134282</v>
       </c>
       <c r="Q24" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L25" t="n">
         <v>100.1750500621707</v>
@@ -36530,10 +36530,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O25" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P25" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.42756573540493</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K26" t="n">
         <v>242.504521076774</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.45929493855884</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M27" t="n">
-        <v>471.1244815546328</v>
+        <v>435.3113457726467</v>
       </c>
       <c r="N27" t="n">
         <v>499.4594147950773</v>
@@ -36846,7 +36846,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O29" t="n">
-        <v>334.0856525821683</v>
+        <v>334.085652582168</v>
       </c>
       <c r="P29" t="n">
         <v>247.0794429043021</v>
@@ -36913,7 +36913,7 @@
         <v>54.2724307205449</v>
       </c>
       <c r="K30" t="n">
-        <v>108.618463362951</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L30" t="n">
         <v>358.7293379959386</v>
@@ -36922,7 +36922,7 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N30" t="n">
-        <v>499.4594147950773</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O30" t="n">
         <v>389.8212435325733</v>
@@ -36931,7 +36931,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540493</v>
       </c>
       <c r="K32" t="n">
         <v>242.504521076774</v>
@@ -37083,7 +37083,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O32" t="n">
-        <v>334.085652582168</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P32" t="n">
         <v>247.0794429043021</v>
@@ -37159,7 +37159,7 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N33" t="n">
-        <v>297.2586397165329</v>
+        <v>441.6902388614698</v>
       </c>
       <c r="O33" t="n">
         <v>389.8212435325733</v>
@@ -37168,7 +37168,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q33" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>76.6524486700354</v>
+        <v>353.6529763974178</v>
       </c>
       <c r="M35" t="n">
         <v>410.2813662320701</v>
@@ -37320,7 +37320,7 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O35" t="n">
-        <v>334.0856525821683</v>
+        <v>57.08512485478565</v>
       </c>
       <c r="P35" t="n">
         <v>247.0794429043021</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>220.6600700171035</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M36" t="n">
-        <v>174.4886012949409</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N36" t="n">
-        <v>20.11704045152376</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O36" t="n">
-        <v>389.8212435325733</v>
+        <v>317.4845117517058</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6910993470357</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>144.4315991449368</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>158.0510751200947</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L38" t="n">
         <v>353.6529763974178</v>
@@ -37554,7 +37554,7 @@
         <v>410.2813662320701</v>
       </c>
       <c r="N38" t="n">
-        <v>402.1403521728462</v>
+        <v>317.6869062161669</v>
       </c>
       <c r="O38" t="n">
         <v>334.0856525821683</v>
@@ -37630,16 +37630,16 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M39" t="n">
-        <v>318.9202004398777</v>
+        <v>215.9453534324289</v>
       </c>
       <c r="N39" t="n">
-        <v>20.11704045152376</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O39" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P39" t="n">
-        <v>295.6910993470357</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K41" t="n">
-        <v>242.504521076774</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>324.856859560737</v>
+        <v>353.6529763974178</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N41" t="n">
-        <v>402.1403521728462</v>
+        <v>232.6844186532335</v>
       </c>
       <c r="O41" t="n">
         <v>334.0856525821683</v>
@@ -37800,7 +37800,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q41" t="n">
-        <v>107.5445942077698</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L42" t="n">
-        <v>358.7293379959386</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>418.782986806008</v>
       </c>
       <c r="N42" t="n">
-        <v>50.75515567810506</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O42" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P42" t="n">
-        <v>295.6910993470357</v>
+        <v>65.73253619796762</v>
       </c>
       <c r="Q42" t="n">
         <v>144.4315991449368</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L44" t="n">
-        <v>353.6529763974178</v>
+        <v>22.1200875364365</v>
       </c>
       <c r="M44" t="n">
         <v>410.2813662320701</v>
       </c>
       <c r="N44" t="n">
-        <v>313.1119843886388</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
         <v>334.0856525821683</v>
@@ -38104,16 +38104,16 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
-        <v>5.4194178046329</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N45" t="n">
-        <v>418.782986806008</v>
+        <v>215.9453534324289</v>
       </c>
       <c r="O45" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P45" t="n">
-        <v>210.5259356277962</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
